--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="23" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="25" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="806">
   <si>
     <t>cloumn</t>
   </si>
@@ -1534,9 +1534,6 @@
     <t>transaction type</t>
   </si>
   <si>
-    <t>ff- voucher type id</t>
-  </si>
-  <si>
     <t>transaction_date</t>
   </si>
   <si>
@@ -1546,15 +1543,9 @@
     <t>narration</t>
   </si>
   <si>
-    <t>used in billwise o/s</t>
-  </si>
-  <si>
     <t>authoristion_status</t>
   </si>
   <si>
-    <t>select(pendinglapproved/reject)</t>
-  </si>
-  <si>
     <t>dummy_entry</t>
   </si>
   <si>
@@ -1624,18 +1615,12 @@
     <t>party name</t>
   </si>
   <si>
-    <t>chq/ref_no</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>bank transactions</t>
   </si>
   <si>
-    <t>chq/ref_date</t>
-  </si>
-  <si>
     <t>reco_date</t>
   </si>
   <si>
@@ -1711,15 +1696,6 @@
     <t>FK -transaction_details-id</t>
   </si>
   <si>
-    <t>ref_billDate</t>
-  </si>
-  <si>
-    <t>ref_bill_due date</t>
-  </si>
-  <si>
-    <t>transaction bill date</t>
-  </si>
-  <si>
     <t>transaction_details_billwiseId</t>
   </si>
   <si>
@@ -1783,9 +1759,6 @@
     <t>on-account</t>
   </si>
   <si>
-    <t>default=invoice_no</t>
-  </si>
-  <si>
     <t>online_ref_no</t>
   </si>
   <si>
@@ -1867,18 +1840,6 @@
     <t>if status false can not modify any transaction from frontend for that year</t>
   </si>
   <si>
-    <t>party_code</t>
-  </si>
-  <si>
-    <t>used for against reference ledger ledgers</t>
-  </si>
-  <si>
-    <t>debtor/creditor/party id</t>
-  </si>
-  <si>
-    <t>ledger_id of party /account</t>
-  </si>
-  <si>
     <t>shipped_from</t>
   </si>
   <si>
@@ -1957,12 +1918,6 @@
     <t>if balance created on</t>
   </si>
   <si>
-    <t>unique (ref_no,Comp_id, party code)</t>
-  </si>
-  <si>
-    <t>in case of memorandum/ planning type of voucher =TRUE</t>
-  </si>
-  <si>
     <t>budet_detail_ id</t>
   </si>
   <si>
@@ -1988,9 +1943,6 @@
   </si>
   <si>
     <t>may</t>
-  </si>
-  <si>
-    <t>ref no in transaction table</t>
   </si>
   <si>
     <t>budget_cashflow_detail_ id</t>
@@ -2427,12 +2379,135 @@
   <si>
     <t>TOTAL OF  ALL COST CENTERS UNDER 1 COST CENTER Category SHOULD NOT EXCEED opening blance for that ledger</t>
   </si>
+  <si>
+    <t>sb1</t>
+  </si>
+  <si>
+    <t>sal to xyz</t>
+  </si>
+  <si>
+    <t>only for purchase</t>
+  </si>
+  <si>
+    <t>only for sales</t>
+  </si>
+  <si>
+    <t>supplier's invoice_no</t>
+  </si>
+  <si>
+    <t>Purchase invoice_date</t>
+  </si>
+  <si>
+    <t>year_ID</t>
+  </si>
+  <si>
+    <t>fk- voucher type id</t>
+  </si>
+  <si>
+    <t>if authorisation required -pending; else approved</t>
+  </si>
+  <si>
+    <t>trigger on approval/rejectioon update status</t>
+  </si>
+  <si>
+    <t>only for purchase/ sales</t>
+  </si>
+  <si>
+    <t>in case of memorandum/ planning type of voucher =TRUE, else=False</t>
+  </si>
+  <si>
+    <t>no user ineterface</t>
+  </si>
+  <si>
+    <t>no user ineterface-(pending/approved/rejected)</t>
+  </si>
+  <si>
+    <t>not null only for bank receipt /payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> only for bank receipt /payment</t>
+  </si>
+  <si>
+    <t>chq_no</t>
+  </si>
+  <si>
+    <t>only bank receipt /payment</t>
+  </si>
+  <si>
+    <t>oline details are updated later</t>
+  </si>
+  <si>
+    <t>ref_Date</t>
+  </si>
+  <si>
+    <t>ref_bill_Date</t>
+  </si>
+  <si>
+    <t>ref_type</t>
+  </si>
+  <si>
+    <t>(in sale &amp; purchase- new,Against Referance,)(in receipt payment On Account, Advance)</t>
+  </si>
+  <si>
+    <t>sale 1</t>
+  </si>
+  <si>
+    <t>invoice no in transaction table</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>sale 2</t>
+  </si>
+  <si>
+    <t>against ref</t>
+  </si>
+  <si>
+    <t>br1</t>
+  </si>
+  <si>
+    <t>br2</t>
+  </si>
+  <si>
+    <t>bank receipt</t>
+  </si>
+  <si>
+    <t>from xyz</t>
+  </si>
+  <si>
+    <t>only for cash/bank receipt/payments</t>
+  </si>
+  <si>
+    <t>on account</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj </t>
+  </si>
+  <si>
+    <t>when bill wise adjusment done</t>
+  </si>
+  <si>
+    <t>TOTAL OF  ALL COST CENTERS UNDER 1 COST CENTER Category SHOULD NOT EXCEED transaction amount</t>
+  </si>
+  <si>
+    <t>name of payee / receiver</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Duties &amp; Taxes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2547,8 +2622,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2583,6 +2666,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2896,7 +2991,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3090,6 +3185,27 @@
     <xf numFmtId="16" fontId="13" fillId="6" borderId="12" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3101,7 +3217,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3380,15 +3506,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>173353</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>491014</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3405,8 +3531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="390524"/>
-          <a:ext cx="8711089" cy="4467225"/>
+          <a:off x="8850628" y="390524"/>
+          <a:ext cx="9008271" cy="4619626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,8 +3599,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>91673</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>126310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3831,7 +3957,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3883,17 +4009,17 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3901,12 +4027,12 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,12 +4056,12 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +4172,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,7 +4480,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -4472,7 +4598,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,7 +4653,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -4546,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10" t="s">
@@ -4584,7 +4710,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
@@ -4593,7 +4719,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4608,7 +4734,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4629,7 +4755,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4650,7 +4776,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>35</v>
@@ -4696,7 +4822,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4729,7 +4855,7 @@
         <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4737,10 +4863,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D16" s="35">
         <v>4</v>
@@ -4758,10 +4884,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D17" s="35">
         <v>4</v>
@@ -4779,10 +4905,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D18" s="35">
         <v>4</v>
@@ -4800,10 +4926,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D19" s="35">
         <v>4</v>
@@ -4863,10 +4989,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D22" s="35">
         <v>4</v>
@@ -4884,10 +5010,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D23" s="35">
         <v>4</v>
@@ -4905,10 +5031,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D24" s="35">
         <v>4</v>
@@ -4926,10 +5052,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D25" s="35">
         <v>4</v>
@@ -4950,7 +5076,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="D26" s="35">
         <v>4</v>
@@ -4971,7 +5097,7 @@
         <v>183</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D27" s="35">
         <v>4</v>
@@ -4992,7 +5118,7 @@
         <v>184</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D28" s="35">
         <v>4</v>
@@ -5013,7 +5139,7 @@
         <v>185</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="D29" s="35">
         <v>4</v>
@@ -5033,7 +5159,7 @@
         <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="I30" t="s">
         <v>379</v>
@@ -5055,33 +5181,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="C33"/>
       <c r="F33" s="79" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="G33" s="79"/>
       <c r="H33" s="79" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="C34"/>
       <c r="F34" s="79" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="G34" s="79"/>
       <c r="H34" s="79" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="C35"/>
     </row>
@@ -5161,7 +5287,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -5179,7 +5305,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -5241,7 +5367,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -5284,7 +5410,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
@@ -5452,7 +5578,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>217</v>
@@ -5498,12 +5624,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,7 +5779,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>217</v>
@@ -5712,10 +5838,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A20" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5766,7 +5892,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -5800,7 +5926,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -5833,18 +5959,18 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -5887,7 +6013,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -5929,13 +6055,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5959,7 +6085,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5983,7 +6109,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6007,7 +6133,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6031,7 +6157,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6055,7 +6181,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6239,7 +6365,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>216</v>
@@ -6344,7 +6470,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>222</v>
@@ -6365,7 +6491,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>222</v>
@@ -6386,7 +6512,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>199</v>
@@ -6396,36 +6522,72 @@
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
+      <c r="A36" s="13">
+        <v>23</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>689</v>
+      <c r="A37" s="13">
+        <v>24</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>804</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>690</v>
-      </c>
+      <c r="A39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>729</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F14:G35 H14:H19">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="F14:G36 H14:H19">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:G37">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6438,8 +6600,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6504,7 +6666,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -6516,13 +6678,13 @@
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -6573,7 +6735,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6584,7 +6746,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6595,7 +6757,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,7 +6768,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6617,7 +6779,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6628,7 +6790,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6639,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6650,7 +6812,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6661,7 +6823,7 @@
         <v>193</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6672,18 +6834,18 @@
         <v>38</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6697,7 +6859,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6708,7 +6870,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6719,7 +6881,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6730,7 +6892,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6741,7 +6903,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6752,7 +6914,7 @@
         <v>98</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6763,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6774,7 +6936,7 @@
         <v>98</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6785,7 +6947,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6796,7 +6958,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6807,12 +6969,12 @@
         <v>7</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>35</v>
@@ -6847,7 +7009,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="82" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6906,10 +7068,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>205</v>
@@ -6930,29 +7092,29 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="2" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -6960,7 +7122,7 @@
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6968,7 +7130,7 @@
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -7028,14 +7190,14 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -7172,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -7234,7 +7396,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -7275,7 +7437,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -7344,7 +7506,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -7355,12 +7517,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -7446,7 +7608,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>17</v>
@@ -7497,7 +7659,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>16</v>
@@ -7599,7 +7761,7 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>18</v>
@@ -9487,7 +9649,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -9948,7 +10110,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -9987,7 +10149,7 @@
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>35</v>
@@ -10000,12 +10162,12 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -10016,7 +10178,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -10027,10 +10189,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>3</v>
@@ -10046,7 +10208,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10090,7 +10252,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10105,7 +10267,7 @@
         <v>378</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -10125,7 +10287,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10143,12 +10305,12 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -10160,7 +10322,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -10176,7 +10338,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -10204,7 +10366,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10225,7 +10387,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -10237,7 +10399,7 @@
       </c>
       <c r="F3" s="10"/>
       <c r="I3" s="79" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10248,7 +10410,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -10265,14 +10427,14 @@
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10"/>
       <c r="I5" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10336,10 +10498,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C12" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -10350,10 +10512,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C13" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D13">
         <v>121</v>
@@ -10364,10 +10526,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C14" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D14">
         <v>122</v>
@@ -10378,10 +10540,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D15">
         <v>123</v>
@@ -10392,10 +10554,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C16" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D16">
         <v>250</v>
@@ -10406,10 +10568,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C17" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D17">
         <v>350</v>
@@ -10420,10 +10582,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C18" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D18">
         <v>450</v>
@@ -10434,10 +10596,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C19" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D19">
         <v>565</v>
@@ -10448,10 +10610,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C20" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D20">
         <v>674</v>
@@ -10462,10 +10624,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C21" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D21">
         <v>783</v>
@@ -10476,10 +10638,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C22" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D22">
         <v>892</v>
@@ -10490,10 +10652,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D23">
         <v>1001</v>
@@ -10504,10 +10666,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C24" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -10518,10 +10680,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C25" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D25">
         <v>80</v>
@@ -10532,10 +10694,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C26" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D26">
         <v>120</v>
@@ -10546,10 +10708,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C27" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D27">
         <v>121</v>
@@ -10560,10 +10722,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C28" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D28">
         <v>122</v>
@@ -10574,10 +10736,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C29" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D29">
         <v>123</v>
@@ -10588,10 +10750,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C30" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D30">
         <v>250</v>
@@ -10602,10 +10764,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C31" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D31">
         <v>350</v>
@@ -10616,10 +10778,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C32" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D32">
         <v>450</v>
@@ -10630,10 +10792,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C33" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="D33">
         <v>565</v>
@@ -10644,10 +10806,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C34" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="D34">
         <v>674</v>
@@ -10658,10 +10820,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C35" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D35">
         <v>783</v>
@@ -10672,10 +10834,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C36" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D36">
         <v>892</v>
@@ -10686,10 +10848,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C37" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="D37">
         <v>1001</v>
@@ -10700,10 +10862,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C38" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -10714,10 +10876,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C39" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -10824,7 +10986,7 @@
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>35</v>
@@ -10837,7 +10999,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11061,12 +11223,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11075,7 +11237,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>193</v>
@@ -11178,7 +11340,7 @@
         <v>367</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -11454,7 +11616,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11481,7 +11643,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11502,12 +11664,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11522,7 +11684,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -11665,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C16" t="s">
         <v>383</v>
@@ -11685,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C17" t="s">
         <v>383</v>
@@ -11705,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -11725,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
@@ -11745,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C20" t="s">
         <v>383</v>
@@ -11762,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -11782,7 +11944,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C22" t="s">
         <v>181</v>
@@ -11802,7 +11964,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C23" t="s">
         <v>383</v>
@@ -11819,7 +11981,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C24" t="s">
         <v>383</v>
@@ -11836,7 +11998,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C25" t="s">
         <v>181</v>
@@ -11853,7 +12015,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C26" t="s">
         <v>181</v>
@@ -11870,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="C27" t="s">
         <v>181</v>
@@ -11887,7 +12049,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="C28" t="s">
         <v>383</v>
@@ -11904,7 +12066,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C29" t="s">
         <v>181</v>
@@ -11976,12 +12138,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11990,7 +12152,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>193</v>
@@ -12368,7 +12530,7 @@
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -12428,7 +12590,7 @@
         <v>408</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -12445,7 +12607,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -12474,7 +12636,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -12485,12 +12647,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -12501,7 +12663,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -12530,14 +12692,14 @@
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>403</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -12569,10 +12731,10 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="L11" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -12586,22 +12748,22 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="L12">
         <v>200</v>
       </c>
       <c r="M12" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N12" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12615,18 +12777,18 @@
         <v>300</v>
       </c>
       <c r="M13" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="L14">
         <v>400</v>
       </c>
       <c r="M14" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -12900,7 +13062,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B28" s="93">
         <v>1</v>
@@ -12925,47 +13087,47 @@
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="K33">
         <v>300</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="M35" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G37" s="79" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="M37" s="79"/>
     </row>
     <row r="38" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G38" s="79" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="M38" s="79"/>
     </row>
     <row r="39" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G39" s="79" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="M39" s="79"/>
     </row>
     <row r="42" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G42" s="85" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -13148,7 +13310,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="C14"/>
     </row>
@@ -13157,7 +13319,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="C15"/>
     </row>
@@ -13166,7 +13328,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="C16"/>
     </row>
@@ -13175,7 +13337,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="C17"/>
     </row>
@@ -13220,7 +13382,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="I1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13262,7 +13424,7 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -13281,12 +13443,12 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="M5" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -13297,35 +13459,35 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>103</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="M6" s="13">
         <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="O6" s="79" t="s">
         <v>60</v>
       </c>
       <c r="P6" s="79"/>
       <c r="Q6" s="79" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="R6" s="79"/>
       <c r="S6" s="79" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -13336,7 +13498,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="K7" t="s">
         <v>101</v>
@@ -13348,7 +13510,7 @@
         <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="O7" s="79">
         <v>1</v>
@@ -13360,7 +13522,7 @@
         <v>44197</v>
       </c>
       <c r="R7" s="79" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="S7" s="95">
         <v>44201</v>
@@ -13383,7 +13545,7 @@
         <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="M8">
         <v>400</v>
@@ -13398,7 +13560,7 @@
         <v>44228</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="S8" s="95">
         <v>44232</v>
@@ -13431,7 +13593,7 @@
         <v>44256</v>
       </c>
       <c r="R9" s="79" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="S9" s="95">
         <v>44260</v>
@@ -13469,7 +13631,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="O11" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -13546,7 +13708,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -13583,10 +13745,10 @@
         <v>fc_rate</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -13865,8 +14027,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13911,7 +14073,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="L2" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -13931,29 +14093,29 @@
         <v>103</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="L3" s="13">
         <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N3" s="111" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="112"/>
       <c r="P3" s="112" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="Q3" s="112"/>
       <c r="R3" s="112" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S3" s="97"/>
       <c r="T3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="V3" s="97" t="s">
         <v>85</v>
@@ -13987,7 +14149,7 @@
         <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N4" s="107">
         <v>1</v>
@@ -13999,7 +14161,7 @@
         <v>44197</v>
       </c>
       <c r="Q4" s="108" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R4" s="109">
         <v>44201</v>
@@ -14018,7 +14180,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -14029,13 +14191,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="J5" t="s">
         <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="L5">
         <v>400</v>
@@ -14050,7 +14212,7 @@
         <v>44228</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R5" s="110">
         <v>44232</v>
@@ -14067,7 +14229,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -14078,7 +14240,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="N6" s="105">
         <v>3</v>
@@ -14090,7 +14252,7 @@
         <v>44256</v>
       </c>
       <c r="Q6" s="106" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R6" s="110">
         <v>44260</v>
@@ -14098,10 +14260,10 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="101" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="V6" s="101" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="W6" s="102">
         <v>30</v>
@@ -14146,7 +14308,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -14179,7 +14341,7 @@
         <v>398</v>
       </c>
       <c r="N9" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -14268,7 +14430,7 @@
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N15" s="96" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97"/>
@@ -14277,7 +14439,7 @@
       <c r="S15" s="97"/>
       <c r="T15" s="97"/>
       <c r="U15" s="97" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="V15" s="97" t="s">
         <v>85</v>
@@ -14312,10 +14474,10 @@
         <v>fc_rate</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="I16" s="43" t="str">
         <f>A8</f>
@@ -14346,7 +14508,7 @@
         <v>-1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -14380,7 +14542,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -14390,10 +14552,10 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="101" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="V18" s="101" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="W18" s="102">
         <v>30</v>
@@ -14407,7 +14569,7 @@
         <v>560</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
@@ -14518,20 +14680,20 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -14654,7 +14816,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="L1" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="N1" s="96"/>
       <c r="O1" s="97"/>
@@ -14686,29 +14848,29 @@
         <v>103</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="L2" s="13">
         <v>200</v>
       </c>
       <c r="M2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N2" s="105" t="s">
         <v>60</v>
       </c>
       <c r="O2" s="106"/>
       <c r="P2" s="106" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="Q2" s="106"/>
       <c r="R2" s="106" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>85</v>
@@ -14724,7 +14886,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -14740,7 +14902,7 @@
         <v>300</v>
       </c>
       <c r="M3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N3" s="107">
         <v>1</v>
@@ -14752,7 +14914,7 @@
         <v>44197</v>
       </c>
       <c r="Q3" s="108" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R3" s="109">
         <v>44201</v>
@@ -14775,7 +14937,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>421</v>
@@ -14788,7 +14950,7 @@
         <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="L4">
         <v>400</v>
@@ -14803,7 +14965,7 @@
         <v>44228</v>
       </c>
       <c r="Q4" s="106" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R4" s="110">
         <v>44232</v>
@@ -14820,7 +14982,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -14831,7 +14993,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>103</v>
@@ -14843,7 +15005,7 @@
         <v>200</v>
       </c>
       <c r="M5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N5" s="105">
         <v>3</v>
@@ -14855,7 +15017,7 @@
         <v>44256</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R5" s="110">
         <v>44260</v>
@@ -14863,10 +15025,10 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="101" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="V5" s="101" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="W5" s="102">
         <v>30</v>
@@ -14874,7 +15036,7 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -14885,7 +15047,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="24"/>
@@ -14920,7 +15082,7 @@
         <v>398</v>
       </c>
       <c r="N7" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -15042,7 +15204,7 @@
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="V13" s="97" t="s">
         <v>85</v>
@@ -15056,13 +15218,13 @@
         <v>103</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="P14" s="59">
         <v>200</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -15103,10 +15265,10 @@
         <v>fc_rate</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="N15" s="99"/>
       <c r="O15" s="100"/>
@@ -15141,10 +15303,10 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="101" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="V16" s="101" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="W16" s="102">
         <v>30</v>
@@ -15456,7 +15618,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15503,7 +15665,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>98</v>
@@ -15517,7 +15679,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>38</v>
@@ -15529,7 +15691,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>98</v>
@@ -15543,7 +15705,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
@@ -15552,7 +15714,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15589,7 +15751,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -16340,7 +16502,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -16747,7 +16909,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -16802,10 +16964,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -16815,10 +16977,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -16828,10 +16990,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -16841,10 +17003,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -16852,10 +17014,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -16865,103 +17027,103 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
       <c r="F1" s="45"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>486</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>488</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>492</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -16969,277 +17131,294 @@
       <c r="C6" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>600</v>
+        <v>515</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="F8" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>3</v>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>779</v>
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+        <v>529</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>780</v>
+      </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>95</v>
+        <v>771</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="D22" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+        <v>500</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="10" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>7</v>
@@ -17247,318 +17426,447 @@
       <c r="C25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="D25" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H27" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>768</v>
+      </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>768</v>
+      </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>173</v>
+        <v>769</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>767</v>
+      </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>515</v>
+        <v>770</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>518</v>
+        <v>173</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="F33" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C37" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B37" s="10" t="s">
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="s">
-        <v>524</v>
-      </c>
+      <c r="C40" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>605</v>
+        <v>518</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+        <v>595</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>767</v>
+      </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+        <v>596</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>767</v>
+      </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>59</v>
+        <v>593</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>3</v>
+      <c r="C45" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>768</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="H45" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="H47" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="10"/>
-      <c r="H46" t="s">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="H48" t="s">
         <v>371</v>
       </c>
-      <c r="I46" t="s">
-        <v>511</v>
-      </c>
-      <c r="J46" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H47" t="s">
-        <v>535</v>
+      <c r="I48" t="s">
+        <v>508</v>
+      </c>
+      <c r="J48" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="113" t="str">
+        <f>A3</f>
+        <v>voucher No</v>
+      </c>
+      <c r="B52" s="113" t="str">
+        <f>A4</f>
+        <v>transaction type</v>
+      </c>
+      <c r="C52" s="115" t="str">
+        <f>A5</f>
+        <v>transaction_date</v>
+      </c>
+      <c r="D52" s="115" t="str">
+        <f>A6</f>
+        <v>narration</v>
+      </c>
+      <c r="E52" s="115" t="str">
+        <f>A28</f>
+        <v>invoice_no</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>765</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="117">
+        <v>44197</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>793</v>
+      </c>
+      <c r="B54" t="s">
+        <v>795</v>
+      </c>
+      <c r="C54" s="117">
+        <v>44198</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>794</v>
+      </c>
+      <c r="B55" t="s">
+        <v>795</v>
+      </c>
+      <c r="C55" s="117">
+        <v>44199</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -17569,10 +17877,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17617,29 +17925,29 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -17649,11 +17957,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -17663,7 +17971,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -17674,12 +17982,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -17690,7 +17998,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -17708,81 +18016,83 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
-        <v>544</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>403</v>
+      </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -17791,19 +18101,161 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10"/>
+    <row r="17" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="118" t="str">
+        <f>A3</f>
+        <v>srno</v>
+      </c>
+      <c r="B17" s="118" t="str">
+        <f>A4</f>
+        <v>transaction_Id</v>
+      </c>
+      <c r="C17" s="118" t="str">
+        <f>A5</f>
+        <v>ac code</v>
+      </c>
+      <c r="D17" s="118" t="str">
+        <f>A6</f>
+        <v>dr</v>
+      </c>
+      <c r="E17" s="118" t="str">
+        <f>A7</f>
+        <v>cr</v>
+      </c>
+      <c r="F17" s="118" t="str">
+        <f>A8</f>
+        <v>amount</v>
+      </c>
+      <c r="G17" s="118" t="str">
+        <f>A2</f>
+        <v>Id</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="119">
+        <v>1</v>
+      </c>
+      <c r="B18" s="119">
+        <v>1</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="119">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="119">
+        <v>2</v>
+      </c>
+      <c r="B19" s="119">
+        <v>1</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="119">
+        <v>-1000</v>
+      </c>
+      <c r="G19" s="119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
+        <v>1</v>
+      </c>
+      <c r="B20" s="120">
+        <v>2</v>
+      </c>
+      <c r="C20" s="120" t="s">
+        <v>755</v>
+      </c>
+      <c r="D20" s="120">
+        <v>600</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120">
+        <v>600</v>
+      </c>
+      <c r="G20" s="120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="120">
+        <v>2</v>
+      </c>
+      <c r="B21" s="120">
+        <v>2</v>
+      </c>
+      <c r="C21" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120">
+        <v>600</v>
+      </c>
+      <c r="F21" s="120">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="119">
+        <v>1</v>
+      </c>
+      <c r="B22" s="119">
+        <v>2</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>755</v>
+      </c>
+      <c r="D22" s="119">
+        <v>200</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119">
+        <v>200</v>
+      </c>
+      <c r="G22" s="119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="119">
+        <v>2</v>
+      </c>
+      <c r="B23" s="119">
+        <v>2</v>
+      </c>
+      <c r="C23" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119">
+        <v>200</v>
+      </c>
+      <c r="F23" s="119">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="119">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17812,10 +18264,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17826,6 +18278,7 @@
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -17860,25 +18313,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B4" s="10"/>
+        <v>786</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>641</v>
+        <v>787</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -17888,27 +18341,29 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>548</v>
+        <v>411</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>550</v>
+        <v>789</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>549</v>
+        <v>784</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>548</v>
+        <v>785</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -17916,7 +18371,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -17925,12 +18380,12 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -17939,7 +18394,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -17955,7 +18410,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -18030,7 +18485,247 @@
       </c>
       <c r="F14" s="10"/>
     </row>
+    <row r="17" spans="1:12" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="118" t="str">
+        <f>A3</f>
+        <v>transaction_details_Id</v>
+      </c>
+      <c r="B17" s="118" t="str">
+        <f>A5</f>
+        <v>ref_no</v>
+      </c>
+      <c r="C17" s="118" t="str">
+        <f>A6</f>
+        <v>ref_Date</v>
+      </c>
+      <c r="D17" s="118" t="str">
+        <f>A4</f>
+        <v>ref_type</v>
+      </c>
+      <c r="E17" s="118" t="str">
+        <f>A7</f>
+        <v>dr</v>
+      </c>
+      <c r="F17" s="118" t="str">
+        <f>A8</f>
+        <v>cr</v>
+      </c>
+      <c r="G17" s="118" t="str">
+        <f>A9</f>
+        <v>amount</v>
+      </c>
+      <c r="H17" s="118" t="str">
+        <f>A10</f>
+        <v>fc_amount</v>
+      </c>
+      <c r="I17" s="118" t="str">
+        <f>A11</f>
+        <v>fc_rate</v>
+      </c>
+      <c r="J17" s="118" t="str">
+        <f>A2</f>
+        <v>Id</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>transactions_details!A18</f>
+        <v>1</v>
+      </c>
+      <c r="B18" t="str">
+        <f>transactions!E53</f>
+        <v>sale 1</v>
+      </c>
+      <c r="C18" s="55">
+        <f>transactions!C53</f>
+        <v>44197</v>
+      </c>
+      <c r="D18" t="s">
+        <v>790</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>791</v>
+      </c>
+      <c r="C19" s="55">
+        <v>44197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>790</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="str">
+        <f>B18</f>
+        <v>sale 1</v>
+      </c>
+      <c r="C20" s="55">
+        <v>44198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>792</v>
+      </c>
+      <c r="F20">
+        <v>300</v>
+      </c>
+      <c r="G20">
+        <v>-300</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="str">
+        <f>B19</f>
+        <v>sale 2</v>
+      </c>
+      <c r="C21" s="55">
+        <v>44198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>792</v>
+      </c>
+      <c r="F21">
+        <v>300</v>
+      </c>
+      <c r="G21">
+        <v>-300</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="str">
+        <f>transactions!A55</f>
+        <v>br2</v>
+      </c>
+      <c r="C22" s="55">
+        <v>44199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>798</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>-200</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="str">
+        <f>B22</f>
+        <v>br2</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="E23" s="13">
+        <v>200</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
+        <v>200</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
+        <v>6</v>
+      </c>
+      <c r="L23" s="121" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="str">
+        <f>B20</f>
+        <v>sale 1</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13">
+        <v>100</v>
+      </c>
+      <c r="G24" s="13">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
+        <v>7</v>
+      </c>
+      <c r="L24" s="121"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="str">
+        <f>B21</f>
+        <v>sale 2</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>799</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13">
+        <v>100</v>
+      </c>
+      <c r="G25" s="13">
+        <v>-100</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13">
+        <v>8</v>
+      </c>
+      <c r="L25" s="121"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L23:L25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18095,7 +18790,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>225</v>
@@ -18107,14 +18802,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -18151,7 +18846,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>35</v>
@@ -18578,15 +19273,15 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
@@ -18626,35 +19321,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>542</v>
-      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -18663,46 +19354,42 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>398</v>
-      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -18710,141 +19397,330 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="10" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="16" spans="1:6" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="str">
+        <f>A3</f>
+        <v>transaction_details_billwiseId</v>
+      </c>
+      <c r="B16" s="113" t="str">
+        <f>A7</f>
+        <v>cost_centern_no</v>
+      </c>
+      <c r="C16" s="113" t="str">
+        <f>A4</f>
+        <v>transaction_details_Id</v>
+      </c>
+      <c r="D16" s="113" t="str">
+        <f>A5</f>
+        <v>dr</v>
+      </c>
+      <c r="E16" s="113" t="str">
+        <f>A6</f>
+        <v>cr</v>
+      </c>
+      <c r="F16" s="113" t="str">
+        <f>A8</f>
+        <v>amount</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="119">
+        <f>transactions_details_billwise!J18</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="119">
+        <v>1</v>
+      </c>
+      <c r="C17" s="119">
+        <f>transactions_details!B18</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="119">
+        <v>200</v>
+      </c>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="119">
+        <f>transactions_details_billwise!J18</f>
+        <v>1</v>
+      </c>
+      <c r="B18" s="119">
+        <v>2</v>
+      </c>
+      <c r="C18" s="119">
+        <f>transactions_details!B18</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="119">
+        <v>300</v>
+      </c>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="120">
+        <f>transactions_details_billwise!J20</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="120">
+        <v>1</v>
+      </c>
+      <c r="C19" s="120">
+        <f>transactions_details_billwise!A20</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="120">
+        <v>100</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
+        <f>transactions_details_billwise!J20</f>
+        <v>3</v>
+      </c>
+      <c r="B20" s="120">
+        <v>2</v>
+      </c>
+      <c r="C20" s="120">
+        <f>transactions_details_billwise!A20</f>
+        <v>4</v>
+      </c>
+      <c r="D20" s="120">
+        <v>100</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="120">
+        <f>transactions_details_billwise!J20</f>
+        <v>3</v>
+      </c>
+      <c r="B21" s="120">
+        <v>3</v>
+      </c>
+      <c r="C21" s="120">
+        <f>transactions_details_billwise!A20</f>
+        <v>4</v>
+      </c>
+      <c r="D21" s="120">
+        <v>100</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="119"/>
+      <c r="B22" s="119">
+        <v>2</v>
+      </c>
+      <c r="C22" s="119">
+        <f>transactions_details!G19</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119">
+        <v>500</v>
+      </c>
+      <c r="F22" s="119">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119">
+        <v>3</v>
+      </c>
+      <c r="C23" s="119">
+        <f>transactions_details!G19</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119">
+        <v>500</v>
+      </c>
+      <c r="F23" s="119">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>761</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
+        <v>762</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B29" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B30" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C30" s="21">
         <v>100</v>
       </c>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="59" t="s">
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C31" s="21">
         <v>100</v>
       </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59" t="s">
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+      <c r="B32" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C32" s="21">
         <v>100</v>
       </c>
-      <c r="D23" s="68">
-        <f>SUM(C21:C23)</f>
+      <c r="D32" s="68">
+        <f>SUM(C30:C32)</f>
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B33" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C33" s="21">
         <v>150</v>
       </c>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="61" t="s">
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="66"/>
+      <c r="B34" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C34" s="24">
         <v>150</v>
       </c>
-      <c r="D25" s="67">
-        <f>SUM(C24:C25)</f>
+      <c r="D34" s="67">
+        <f>SUM(C33:C34)</f>
         <v>300</v>
       </c>
     </row>
@@ -18904,11 +19780,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -18922,7 +19798,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>421</v>
@@ -18934,7 +19810,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -18943,12 +19819,12 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -18957,7 +19833,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -19365,12 +20241,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -19425,10 +20301,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -19438,10 +20314,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -19451,10 +20327,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -19464,10 +20340,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -19475,10 +20351,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -19541,7 +20417,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
@@ -19715,7 +20591,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
@@ -19729,12 +20605,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -20136,7 +21012,7 @@
       </c>
       <c r="K17" s="4">
         <f ca="1">TODAY()</f>
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="L17" t="s">
         <v>126</v>
@@ -20176,7 +21052,7 @@
       </c>
       <c r="K18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="L18" t="s">
         <v>127</v>
@@ -20216,7 +21092,7 @@
       </c>
       <c r="K19" s="4">
         <f ca="1">TODAY()</f>
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="L19" t="s">
         <v>126</v>
@@ -20256,7 +21132,7 @@
       </c>
       <c r="K20" s="4">
         <f ca="1">TODAY()</f>
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="L20" t="s">
         <v>127</v>
@@ -20296,7 +21172,7 @@
       </c>
       <c r="K21" s="87">
         <f ca="1">TODAY()</f>
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>126</v>
@@ -20585,7 +21461,7 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -20730,21 +21606,21 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="79" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="C31" s="80"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="79" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="C32" s="80"/>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="26" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -46,8 +46,8 @@
     <sheet name="op_bal__ledg_costcenter" sheetId="28" state="hidden" r:id="rId32"/>
     <sheet name="op_bal_BRS" sheetId="30" r:id="rId33"/>
     <sheet name="lc" sheetId="31" r:id="rId34"/>
-    <sheet name="lc_amend" sheetId="32" r:id="rId35"/>
-    <sheet name="lc_docs" sheetId="42" r:id="rId36"/>
+    <sheet name="lc_docs" sheetId="42" r:id="rId35"/>
+    <sheet name="lc_amend" sheetId="32" r:id="rId36"/>
     <sheet name="transactions" sheetId="34" r:id="rId37"/>
     <sheet name="transactions_details" sheetId="35" r:id="rId38"/>
     <sheet name="transactions_details_billwise" sheetId="36" r:id="rId39"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="829">
   <si>
     <t>cloumn</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>Unique(cashflow_budget id &amp; month &amp;cashflow_head)</t>
   </si>
   <si>
-    <t>Unique(cashflow_budget id &amp; month &amp;cashflow_group)</t>
-  </si>
-  <si>
     <t>FK -ledger id</t>
   </si>
   <si>
@@ -1432,18 +1429,12 @@
     <t>unique(companyid+lcno)</t>
   </si>
   <si>
-    <t>entry_date</t>
-  </si>
-  <si>
     <t>party code</t>
   </si>
   <si>
     <t>fk-ledger</t>
   </si>
   <si>
-    <t>costcente</t>
-  </si>
-  <si>
     <t>fk-cost center</t>
   </si>
   <si>
@@ -1495,9 +1486,6 @@
     <t>bank a/c</t>
   </si>
   <si>
-    <t>bank from wher LC issued/will be collected</t>
-  </si>
-  <si>
     <t>lc amount</t>
   </si>
   <si>
@@ -2029,9 +2017,6 @@
     <t>budget_detail_ id</t>
   </si>
   <si>
-    <t>only on expenses/ payments- monthly total &amp; cummulative total will be checked</t>
-  </si>
-  <si>
     <t>if ledger under Expense group then only check ristriction of budget amount</t>
   </si>
   <si>
@@ -2117,9 +2102,6 @@
   </si>
   <si>
     <t>select-drop down(approved/pending/rejected)</t>
-  </si>
-  <si>
-    <t>online transactions</t>
   </si>
   <si>
     <r>
@@ -2540,6 +2522,54 @@
   </si>
   <si>
     <t>todays</t>
+  </si>
+  <si>
+    <t>cost cente</t>
+  </si>
+  <si>
+    <t>bank from where LC issued/will be collected</t>
+  </si>
+  <si>
+    <t>fk-ledger(only Bank / Bank OD group)</t>
+  </si>
+  <si>
+    <t>LC_date</t>
+  </si>
+  <si>
+    <t>year in which LC date is falling for that company</t>
+  </si>
+  <si>
+    <t>all reports - print/ export to - csv,excel, pdf</t>
+  </si>
+  <si>
+    <t>only for online transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either cheque/online </t>
+  </si>
+  <si>
+    <t>must be&gt; opening date of year</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>will be updated in BRS</t>
+  </si>
+  <si>
+    <t>year 1 of that company</t>
+  </si>
+  <si>
+    <t>monthly total &amp; cummulative total will be checked</t>
+  </si>
+  <si>
+    <t>only ledgers where-account hed- bs= no----for that company</t>
+  </si>
+  <si>
+    <t>only ledgers where-account hed- bs= yes for that company</t>
+  </si>
+  <si>
+    <t>party code- for import- Creditors, for export - Customers</t>
   </si>
 </sst>
 </file>
@@ -3248,9 +3278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="6" applyFont="1"/>
@@ -3265,6 +3292,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3465,7 +3495,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>457715</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>166378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3565,15 +3595,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>173353</xdr:colOff>
+      <xdr:colOff>49528</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104299</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590074</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3590,7 +3620,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8850628" y="390524"/>
+          <a:off x="9641203" y="419099"/>
           <a:ext cx="9008271" cy="4619626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3607,16 +3637,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514865</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>264</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3633,8 +3663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8886825" y="0"/>
-          <a:ext cx="5944115" cy="3048264"/>
+          <a:off x="9001125" y="9525"/>
+          <a:ext cx="7896400" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,7 +3991,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4016,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -4047,7 +4077,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -4058,6 +4088,11 @@
         <v>269</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="48" t="s">
+        <v>818</v>
+      </c>
+    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
@@ -4068,17 +4103,17 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4086,12 +4121,12 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4107,7 +4142,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4115,12 +4150,12 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -4140,7 +4175,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -4231,7 +4266,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4328,8 +4363,8 @@
       <c r="F11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="122" t="s">
-        <v>806</v>
+      <c r="G11" s="121" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4500,78 +4535,78 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="123" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="123">
+    <row r="19" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="122">
         <v>8</v>
       </c>
-      <c r="B19" s="125">
+      <c r="B19" s="124">
         <v>0</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C19" s="125">
         <f>D19-364</f>
         <v>43922</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="126">
         <f>C20-1</f>
         <v>44286</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="124">
         <v>5</v>
       </c>
-      <c r="F19" s="125" t="s">
+      <c r="F19" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="124" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="123" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="123">
+    <row r="20" spans="1:7" s="122" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="122">
         <v>9</v>
       </c>
-      <c r="B20" s="125">
-        <v>1</v>
-      </c>
-      <c r="C20" s="128">
+      <c r="B20" s="124">
+        <v>1</v>
+      </c>
+      <c r="C20" s="127">
         <v>44287</v>
       </c>
-      <c r="D20" s="129">
+      <c r="D20" s="128">
         <f t="shared" ref="D20" si="1">C20+364</f>
         <v>44651</v>
       </c>
-      <c r="E20" s="125">
+      <c r="E20" s="124">
         <v>5</v>
       </c>
-      <c r="F20" s="125" t="s">
+      <c r="F20" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="125" t="s">
+      <c r="G20" s="124" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -4588,7 +4623,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4638,7 +4673,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -4811,7 +4846,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -4830,7 +4865,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10" t="s">
@@ -4868,7 +4903,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
@@ -4877,7 +4912,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -4892,7 +4927,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4913,7 +4948,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -4934,7 +4969,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>35</v>
@@ -4980,7 +5015,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="82" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5013,7 +5048,7 @@
         <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5021,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D16" s="35">
         <v>4</v>
@@ -5042,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D17" s="35">
         <v>4</v>
@@ -5063,10 +5098,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D18" s="35">
         <v>4</v>
@@ -5084,10 +5119,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D19" s="35">
         <v>4</v>
@@ -5147,10 +5182,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D22" s="35">
         <v>4</v>
@@ -5168,10 +5203,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D23" s="35">
         <v>4</v>
@@ -5189,10 +5224,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D24" s="35">
         <v>4</v>
@@ -5210,10 +5245,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D25" s="35">
         <v>4</v>
@@ -5234,7 +5269,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D26" s="35">
         <v>4</v>
@@ -5255,7 +5290,7 @@
         <v>183</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D27" s="35">
         <v>4</v>
@@ -5276,7 +5311,7 @@
         <v>184</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D28" s="35">
         <v>4</v>
@@ -5297,7 +5332,7 @@
         <v>185</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D29" s="35">
         <v>4</v>
@@ -5317,7 +5352,7 @@
         <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="I30" t="s">
         <v>379</v>
@@ -5339,33 +5374,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C33"/>
       <c r="F33" s="79" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G33" s="79"/>
       <c r="H33" s="79" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C34"/>
       <c r="F34" s="79" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G34" s="79"/>
       <c r="H34" s="79" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C35"/>
     </row>
@@ -5393,8 +5428,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5445,7 +5480,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -5463,7 +5498,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -5525,7 +5560,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -5568,7 +5603,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="82" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -5736,7 +5771,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>217</v>
@@ -5782,12 +5817,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -5937,7 +5972,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>217</v>
@@ -5998,8 +6033,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="B11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6050,7 +6085,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -6084,7 +6119,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -6117,18 +6152,18 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -6171,7 +6206,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="82" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -6213,13 +6248,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -6243,7 +6278,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -6267,7 +6302,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -6291,7 +6326,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -6315,7 +6350,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -6339,7 +6374,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -6523,7 +6558,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>216</v>
@@ -6628,7 +6663,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>222</v>
@@ -6649,7 +6684,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>222</v>
@@ -6670,7 +6705,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>199</v>
@@ -6680,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>49</v>
@@ -6691,7 +6726,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>199</v>
@@ -6706,7 +6741,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>222</v>
@@ -6716,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>49</v>
@@ -6724,7 +6759,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -6732,12 +6767,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -6758,7 +6793,7 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -6824,7 +6859,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -6836,13 +6871,13 @@
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -6893,7 +6928,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6904,7 +6939,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6915,7 +6950,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6926,7 +6961,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6937,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -6948,7 +6983,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -6959,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -6970,7 +7005,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -6981,7 +7016,7 @@
         <v>193</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -6992,18 +7027,18 @@
         <v>38</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -7017,7 +7052,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7028,7 +7063,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7039,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7050,7 +7085,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7061,7 +7096,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7072,7 +7107,7 @@
         <v>98</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7083,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7094,7 +7129,7 @@
         <v>98</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7105,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7116,7 +7151,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7127,12 +7162,12 @@
         <v>7</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>35</v>
@@ -7167,7 +7202,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="82" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -7226,10 +7261,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>205</v>
@@ -7250,29 +7285,29 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C46" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7280,7 +7315,7 @@
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7288,7 +7323,7 @@
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -7348,14 +7383,14 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -7492,7 +7527,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -7554,7 +7589,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -7595,7 +7630,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -7664,7 +7699,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -7675,12 +7710,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -7766,7 +7801,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>17</v>
@@ -7817,7 +7852,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>16</v>
@@ -7919,7 +7954,7 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>18</v>
@@ -9807,7 +9842,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -10215,8 +10250,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10268,7 +10303,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -10305,9 +10340,9 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>35</v>
@@ -10319,13 +10354,13 @@
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>654</v>
+      <c r="F6" s="5" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -10336,7 +10371,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -10347,10 +10382,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>3</v>
@@ -10366,7 +10401,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10410,7 +10445,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10425,7 +10460,7 @@
         <v>378</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10445,7 +10480,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -10463,12 +10498,12 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -10480,7 +10515,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -10496,8 +10531,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10524,7 +10559,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -10545,7 +10580,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -10555,9 +10590,11 @@
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>826</v>
+      </c>
       <c r="I3" s="79" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -10568,7 +10605,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -10585,14 +10622,14 @@
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10"/>
       <c r="I5" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -10656,10 +10693,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -10670,10 +10707,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C13" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D13">
         <v>121</v>
@@ -10684,10 +10721,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C14" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D14">
         <v>122</v>
@@ -10698,10 +10735,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C15" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D15">
         <v>123</v>
@@ -10712,10 +10749,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C16" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D16">
         <v>250</v>
@@ -10726,10 +10763,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D17">
         <v>350</v>
@@ -10740,10 +10777,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C18" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D18">
         <v>450</v>
@@ -10754,10 +10791,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D19">
         <v>565</v>
@@ -10768,10 +10805,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C20" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D20">
         <v>674</v>
@@ -10782,10 +10819,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C21" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D21">
         <v>783</v>
@@ -10796,10 +10833,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C22" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D22">
         <v>892</v>
@@ -10810,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C23" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D23">
         <v>1001</v>
@@ -10824,10 +10861,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -10838,10 +10875,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C25" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D25">
         <v>80</v>
@@ -10852,10 +10889,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C26" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D26">
         <v>120</v>
@@ -10866,10 +10903,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C27" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D27">
         <v>121</v>
@@ -10880,10 +10917,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C28" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D28">
         <v>122</v>
@@ -10894,10 +10931,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C29" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D29">
         <v>123</v>
@@ -10908,10 +10945,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C30" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D30">
         <v>250</v>
@@ -10922,10 +10959,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C31" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D31">
         <v>350</v>
@@ -10936,10 +10973,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D32">
         <v>450</v>
@@ -10950,10 +10987,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D33">
         <v>565</v>
@@ -10964,10 +11001,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D34">
         <v>674</v>
@@ -10978,10 +11015,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C35" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D35">
         <v>783</v>
@@ -10992,10 +11029,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C36" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D36">
         <v>892</v>
@@ -11006,10 +11043,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C37" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D37">
         <v>1001</v>
@@ -11020,10 +11057,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C38" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -11034,10 +11071,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C39" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -11144,7 +11181,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>35</v>
@@ -11157,7 +11194,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -11333,8 +11370,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11381,12 +11418,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11395,7 +11432,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>193</v>
@@ -11498,7 +11535,7 @@
         <v>367</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -11773,8 +11810,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11801,7 +11838,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -11822,12 +11859,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11842,7 +11879,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -11908,9 +11945,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
-        <v>394</v>
-      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
@@ -11985,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C16" t="s">
         <v>383</v>
@@ -12005,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C17" t="s">
         <v>383</v>
@@ -12025,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -12045,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
@@ -12065,7 +12100,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C20" t="s">
         <v>383</v>
@@ -12082,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -12102,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C22" t="s">
         <v>181</v>
@@ -12122,7 +12157,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C23" t="s">
         <v>383</v>
@@ -12139,7 +12174,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
         <v>383</v>
@@ -12156,7 +12191,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C25" t="s">
         <v>181</v>
@@ -12173,7 +12208,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C26" t="s">
         <v>181</v>
@@ -12190,7 +12225,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C27" t="s">
         <v>181</v>
@@ -12207,7 +12242,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C28" t="s">
         <v>383</v>
@@ -12224,7 +12259,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C29" t="s">
         <v>181</v>
@@ -12248,8 +12283,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12296,12 +12331,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -12310,7 +12345,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>193</v>
@@ -12688,8 +12723,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12717,7 +12752,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="I1" s="69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12736,7 +12771,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="I2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -12745,27 +12780,29 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>827</v>
+      </c>
       <c r="I3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -12776,7 +12813,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -12789,12 +12826,12 @@
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -12805,12 +12842,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -12821,12 +12858,12 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -12835,47 +12872,47 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -12889,10 +12926,10 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="L11" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -12906,22 +12943,22 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="L12">
         <v>200</v>
       </c>
       <c r="M12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N12" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -12935,21 +12972,21 @@
         <v>300</v>
       </c>
       <c r="M13" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="130" t="s">
-        <v>815</v>
+      <c r="A14" s="129" t="s">
+        <v>809</v>
       </c>
       <c r="K14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="L14">
         <v>400</v>
       </c>
       <c r="M14" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -13021,7 +13058,7 @@
         <v>-2</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F17" s="21">
         <v>25</v>
@@ -13081,7 +13118,7 @@
         <v>-8</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
@@ -13141,7 +13178,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23" s="21">
         <v>100</v>
@@ -13223,7 +13260,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B28" s="93">
         <v>1</v>
@@ -13248,25 +13285,25 @@
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K33">
         <v>300</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="M35" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="131">
+      <c r="A36" s="130">
         <v>44196</v>
       </c>
       <c r="B36" t="s">
@@ -13276,7 +13313,7 @@
         <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -13298,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="M37" s="79"/>
     </row>
@@ -13307,7 +13344,7 @@
         <v>-50</v>
       </c>
       <c r="G38" s="79" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M38" s="79"/>
     </row>
@@ -13316,7 +13353,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="79" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="M39" s="79"/>
     </row>
@@ -13336,16 +13373,16 @@
         <v>945</v>
       </c>
       <c r="D42" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E42" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -13533,7 +13570,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C14"/>
     </row>
@@ -13542,7 +13579,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C15"/>
     </row>
@@ -13551,7 +13588,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C16"/>
     </row>
@@ -13560,7 +13597,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C17"/>
     </row>
@@ -13576,7 +13613,7 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O6" sqref="O6:S9"/>
     </sheetView>
   </sheetViews>
@@ -13605,7 +13642,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="I1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -13626,12 +13663,12 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -13640,14 +13677,14 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -13656,7 +13693,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -13666,12 +13703,12 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="M5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -13682,35 +13719,35 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>103</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="M6" s="13">
         <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O6" s="79" t="s">
         <v>60</v>
       </c>
       <c r="P6" s="79"/>
       <c r="Q6" s="79" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="R6" s="79"/>
       <c r="S6" s="79" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -13721,7 +13758,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K7" t="s">
         <v>101</v>
@@ -13733,7 +13770,7 @@
         <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O7" s="79">
         <v>1</v>
@@ -13745,7 +13782,7 @@
         <v>44197</v>
       </c>
       <c r="R7" s="79" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="S7" s="95">
         <v>44201</v>
@@ -13753,13 +13790,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -13768,7 +13805,7 @@
         <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="M8">
         <v>400</v>
@@ -13783,7 +13820,7 @@
         <v>44228</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="S8" s="95">
         <v>44232</v>
@@ -13804,7 +13841,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O9" s="79">
         <v>3</v>
@@ -13816,7 +13853,7 @@
         <v>44256</v>
       </c>
       <c r="R9" s="79" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="S9" s="95">
         <v>44260</v>
@@ -13824,7 +13861,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
@@ -13833,46 +13870,46 @@
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="O11" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O12" s="94">
         <v>1</v>
@@ -13931,7 +13968,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -13968,10 +14005,10 @@
         <v>fc_rate</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -14014,7 +14051,7 @@
         <v>-2</v>
       </c>
       <c r="G19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H19">
         <v>25</v>
@@ -14083,7 +14120,7 @@
         <v>-8</v>
       </c>
       <c r="G22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -14152,7 +14189,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -14250,8 +14287,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A27"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14296,17 +14333,17 @@
       </c>
       <c r="F2" s="10"/>
       <c r="L2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -14316,29 +14353,29 @@
         <v>103</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="L3" s="13">
         <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N3" s="111" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="112"/>
       <c r="P3" s="112" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="Q3" s="112"/>
       <c r="R3" s="112" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="S3" s="97"/>
       <c r="T3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="V3" s="97" t="s">
         <v>85</v>
@@ -14349,14 +14386,14 @@
     </row>
     <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -14372,7 +14409,7 @@
         <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N4" s="107">
         <v>1</v>
@@ -14384,7 +14421,7 @@
         <v>44197</v>
       </c>
       <c r="Q4" s="108" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R4" s="109">
         <v>44201</v>
@@ -14403,7 +14440,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -14414,13 +14451,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="J5" t="s">
         <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="L5">
         <v>400</v>
@@ -14435,7 +14472,7 @@
         <v>44228</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R5" s="110">
         <v>44232</v>
@@ -14452,7 +14489,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -14463,7 +14500,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="N6" s="105">
         <v>3</v>
@@ -14475,7 +14512,7 @@
         <v>44256</v>
       </c>
       <c r="Q6" s="106" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R6" s="110">
         <v>44260</v>
@@ -14483,10 +14520,10 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="101" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="V6" s="101" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="W6" s="102">
         <v>30</v>
@@ -14507,7 +14544,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="24"/>
@@ -14526,12 +14563,12 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -14548,7 +14585,7 @@
     </row>
     <row r="9" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>193</v>
@@ -14557,26 +14594,26 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N9" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -14592,20 +14629,20 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N11" s="94">
         <v>2</v>
@@ -14653,7 +14690,7 @@
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N15" s="96" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97"/>
@@ -14662,7 +14699,7 @@
       <c r="S15" s="97"/>
       <c r="T15" s="97"/>
       <c r="U15" s="97" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="V15" s="97" t="s">
         <v>85</v>
@@ -14697,10 +14734,10 @@
         <v>fc_rate</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I16" s="43" t="str">
         <f>A8</f>
@@ -14731,7 +14768,7 @@
         <v>-1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -14750,7 +14787,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C18">
         <v>-50</v>
@@ -14759,13 +14796,13 @@
         <v>-2</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F18">
         <v>25</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -14775,10 +14812,10 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="101" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="V18" s="101" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="W18" s="102">
         <v>30</v>
@@ -14786,13 +14823,13 @@
     </row>
     <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C19">
         <v>560</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
@@ -14828,7 +14865,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -14837,7 +14874,7 @@
         <v>-8</v>
       </c>
       <c r="E21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -14851,7 +14888,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -14865,7 +14902,7 @@
         <v>211</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -14879,7 +14916,7 @@
         <v>211</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C24">
         <v>150</v>
@@ -14888,7 +14925,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -14903,34 +14940,34 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B29" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>85</v>
@@ -14953,7 +14990,7 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B31" s="62"/>
       <c r="C31" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D31" s="21">
         <v>100</v>
@@ -14963,7 +15000,7 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B32" s="62"/>
       <c r="C32" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D32" s="21">
         <v>100</v>
@@ -14978,7 +15015,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D33" s="21">
         <v>150</v>
@@ -14988,7 +15025,7 @@
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="66"/>
       <c r="C34" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D34" s="24">
         <v>150</v>
@@ -15039,7 +15076,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="L1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="N1" s="96"/>
       <c r="O1" s="97"/>
@@ -15071,29 +15108,29 @@
         <v>103</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="L2" s="13">
         <v>200</v>
       </c>
       <c r="M2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N2" s="105" t="s">
         <v>60</v>
       </c>
       <c r="O2" s="106"/>
       <c r="P2" s="106" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="Q2" s="106"/>
       <c r="R2" s="106" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>85</v>
@@ -15104,12 +15141,12 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -15125,7 +15162,7 @@
         <v>300</v>
       </c>
       <c r="M3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N3" s="107">
         <v>1</v>
@@ -15137,7 +15174,7 @@
         <v>44197</v>
       </c>
       <c r="Q3" s="108" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R3" s="109">
         <v>44201</v>
@@ -15156,14 +15193,14 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -15173,7 +15210,7 @@
         <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="L4">
         <v>400</v>
@@ -15188,7 +15225,7 @@
         <v>44228</v>
       </c>
       <c r="Q4" s="106" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R4" s="110">
         <v>44232</v>
@@ -15205,7 +15242,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -15216,7 +15253,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>103</v>
@@ -15228,7 +15265,7 @@
         <v>200</v>
       </c>
       <c r="M5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N5" s="105">
         <v>3</v>
@@ -15240,7 +15277,7 @@
         <v>44256</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R5" s="110">
         <v>44260</v>
@@ -15248,10 +15285,10 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="101" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="V5" s="101" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="W5" s="102">
         <v>30</v>
@@ -15259,7 +15296,7 @@
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -15270,7 +15307,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="24"/>
@@ -15302,15 +15339,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -15319,11 +15356,11 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N8" s="94">
         <v>1</v>
@@ -15340,14 +15377,14 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -15366,20 +15403,20 @@
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N10" s="94">
         <v>3</v>
@@ -15427,7 +15464,7 @@
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="V13" s="97" t="s">
         <v>85</v>
@@ -15441,13 +15478,13 @@
         <v>103</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="P14" s="59">
         <v>200</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -15488,10 +15525,10 @@
         <v>fc_rate</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N15" s="99"/>
       <c r="O15" s="100"/>
@@ -15526,10 +15563,10 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="101" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="V16" s="101" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="W16" s="102">
         <v>30</v>
@@ -15540,7 +15577,7 @@
         <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C17">
         <v>-50</v>
@@ -15549,7 +15586,7 @@
         <v>-2</v>
       </c>
       <c r="E17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -15574,7 +15611,7 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C18">
         <v>560</v>
@@ -15596,7 +15633,7 @@
         <v>211</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -15605,7 +15642,7 @@
         <v>-8</v>
       </c>
       <c r="E20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -15627,7 +15664,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -15646,7 +15683,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22">
         <v>150</v>
@@ -15665,7 +15702,7 @@
         <v>211</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -15674,7 +15711,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -15686,21 +15723,21 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B27" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>85</v>
@@ -15723,7 +15760,7 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B29" s="62"/>
       <c r="C29" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D29" s="21">
         <v>100</v>
@@ -15733,7 +15770,7 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B30" s="62"/>
       <c r="C30" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D30" s="21">
         <v>100</v>
@@ -15748,7 +15785,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D31" s="21">
         <v>150</v>
@@ -15758,7 +15795,7 @@
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D32" s="24">
         <v>150</v>
@@ -15776,12 +15813,12 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15791,10 +15828,11 @@
     <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
     <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7265625" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -15830,44 +15868,44 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>397</v>
-      </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>380</v>
-      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -15876,7 +15914,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -15888,7 +15926,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>98</v>
@@ -15898,11 +15936,13 @@
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>38</v>
@@ -15914,7 +15954,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>98</v>
@@ -15924,11 +15964,13 @@
       <c r="E9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
@@ -15937,7 +15979,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>684</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -15958,7 +16000,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -15968,219 +16010,215 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>512</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>822</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="str">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="51" t="str">
         <f>A3</f>
         <v>bank_ledgerid</v>
       </c>
-      <c r="B18" s="51" t="str">
+      <c r="B19" s="51" t="str">
         <f>A4</f>
         <v>year id</v>
       </c>
-      <c r="C18" s="51" t="str">
+      <c r="C19" s="51" t="str">
         <f>A5</f>
         <v>acc_code</v>
       </c>
-      <c r="D18" s="51" t="str">
+      <c r="D19" s="51" t="str">
         <f>A6</f>
         <v>name</v>
       </c>
-      <c r="E18" s="51" t="str">
+      <c r="E19" s="51" t="str">
         <f>A8</f>
         <v>cheque no</v>
       </c>
-      <c r="F18" s="51" t="str">
+      <c r="F19" s="51" t="str">
         <f>A7</f>
         <v>chq_date</v>
       </c>
-      <c r="G18" s="51" t="str">
+      <c r="G19" s="51" t="str">
         <f>A11</f>
         <v>amount</v>
       </c>
-      <c r="H18" s="51" t="str">
+      <c r="H19" s="51" t="str">
         <f>A12</f>
         <v>remarks</v>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="I19" s="1" t="str">
         <f>A13</f>
         <v>trans_type</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="J19" s="1" t="str">
         <f>A10</f>
         <v>trans no</v>
       </c>
-      <c r="K18" s="1" t="str">
+      <c r="K19" s="1" t="str">
         <f>A9</f>
         <v>trans_date</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="L19" s="1" t="str">
+        <f>A14</f>
+        <v>reco_date</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20">
+        <v>123</v>
+      </c>
+      <c r="F20" s="55">
+        <v>44228</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>443</v>
       </c>
-      <c r="E19">
-        <v>123</v>
-      </c>
-      <c r="F19" s="55">
-        <v>44228</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E21">
+        <v>465</v>
+      </c>
+      <c r="F21" s="55">
+        <v>44229</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
         <v>444</v>
       </c>
-      <c r="E20">
-        <v>465</v>
-      </c>
-      <c r="F20" s="55">
-        <v>44229</v>
-      </c>
-      <c r="G20">
-        <v>60</v>
-      </c>
-      <c r="I20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E21">
+      <c r="E22">
         <v>4621122</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F22" s="55">
         <v>44230</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>446</v>
-      </c>
-      <c r="E22">
-        <v>312561</v>
-      </c>
-      <c r="F22" s="55">
-        <v>44231</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="I22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23">
+        <v>312561</v>
+      </c>
+      <c r="F23" s="55">
+        <v>44231</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>447</v>
-      </c>
-      <c r="G23">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s">
-        <v>383</v>
-      </c>
-      <c r="J23">
-        <v>12</v>
-      </c>
-      <c r="K23" s="55">
-        <v>44232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2</v>
       </c>
@@ -16188,51 +16226,51 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G24">
         <v>80</v>
       </c>
       <c r="I24" t="s">
+        <v>383</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24" s="55">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>446</v>
+      </c>
+      <c r="G25">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
         <v>181</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>55</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K25" s="55">
         <v>44233</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>447</v>
-      </c>
-      <c r="G25">
-        <v>58</v>
-      </c>
-      <c r="I25" t="s">
-        <v>383</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25" s="55">
-        <v>44234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -16243,22 +16281,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G26">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>383</v>
+      </c>
+      <c r="J26">
         <v>5</v>
       </c>
-      <c r="I26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J26">
-        <v>522</v>
-      </c>
       <c r="K26" s="55">
-        <v>44235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -16266,25 +16304,25 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E27">
-        <v>55</v>
-      </c>
-      <c r="F27" s="55">
-        <v>44236</v>
+        <v>451</v>
       </c>
       <c r="G27">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="J27">
+        <v>522</v>
+      </c>
+      <c r="K27" s="55">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -16292,51 +16330,51 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E28">
+        <v>55</v>
+      </c>
+      <c r="F28" s="55">
+        <v>44236</v>
+      </c>
+      <c r="G28">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E29">
         <v>5445</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F29" s="55">
         <v>44237</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>50</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I29" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>450</v>
-      </c>
-      <c r="E29">
-        <v>44</v>
-      </c>
-      <c r="F29" s="55">
-        <v>44238</v>
-      </c>
-      <c r="G29">
-        <v>52</v>
-      </c>
-      <c r="I29" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -16347,18 +16385,44 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E30">
+        <v>44</v>
+      </c>
+      <c r="F30" s="55">
+        <v>44238</v>
+      </c>
+      <c r="G30">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31">
         <v>444</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F31" s="55">
         <v>44239</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>55</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>181</v>
       </c>
     </row>
@@ -16375,7 +16439,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16383,9 +16447,9 @@
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16422,13 +16486,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -16437,14 +16501,16 @@
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>397</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
@@ -16452,7 +16518,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>455</v>
+        <v>816</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -16465,46 +16531,52 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>456</v>
+      <c r="A6" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>456</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+        <v>455</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>461</v>
+        <v>813</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>456</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5"/>
@@ -16512,23 +16584,19 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>457</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
@@ -16538,33 +16606,33 @@
       <c r="E11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>398</v>
-      </c>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>484</v>
+        <v>50</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -16572,7 +16640,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -16586,7 +16654,7 @@
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -16614,7 +16682,7 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>7</v>
@@ -16628,7 +16696,7 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>7</v>
@@ -16642,10 +16710,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>50</v>
@@ -16658,10 +16726,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>473</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -16672,10 +16740,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -16686,10 +16754,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -16700,21 +16768,21 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>457</v>
+        <v>815</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>476</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>98</v>
@@ -16725,12 +16793,12 @@
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>193</v>
@@ -16820,232 +16888,6 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F21" s="55"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F23" s="55"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F24" s="55"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F25" s="55"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F26" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17127,12 +16969,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -17187,10 +17029,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -17200,10 +17042,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -17213,10 +17055,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -17226,10 +17068,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17237,14 +17079,242 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17253,7 +17323,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17298,11 +17368,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -17312,13 +17382,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -17328,31 +17398,31 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -17360,16 +17430,16 @@
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
@@ -17378,7 +17448,7 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -17386,63 +17456,63 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>794</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -17450,7 +17520,7 @@
         <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>50</v>
@@ -17463,23 +17533,23 @@
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>98</v>
@@ -17487,29 +17557,29 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>98</v>
@@ -17517,41 +17587,41 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>98</v>
@@ -17559,29 +17629,29 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>98</v>
@@ -17589,18 +17659,18 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
@@ -17609,39 +17679,39 @@
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>7</v>
@@ -17650,7 +17720,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
@@ -17659,7 +17729,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>42</v>
@@ -17671,7 +17741,7 @@
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>7</v>
@@ -17680,15 +17750,15 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H27" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>7</v>
@@ -17696,13 +17766,13 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>98</v>
@@ -17710,13 +17780,13 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>7</v>
@@ -17724,13 +17794,13 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>98</v>
@@ -17738,7 +17808,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F31" s="10"/>
     </row>
@@ -17752,13 +17822,13 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>7</v>
@@ -17766,29 +17836,29 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>98</v>
@@ -17796,47 +17866,47 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>98</v>
@@ -17844,49 +17914,49 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>98</v>
@@ -17895,70 +17965,70 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -17976,7 +18046,7 @@
       </c>
       <c r="F46" s="10"/>
       <c r="H46" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17996,15 +18066,15 @@
         <v>371</v>
       </c>
       <c r="I47" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J47" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H48" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -18031,7 +18101,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>32</v>
@@ -18040,38 +18110,38 @@
         <v>44197</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B53" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C53" s="117">
         <v>44198</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B54" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C54" s="117">
         <v>44199</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -18082,10 +18152,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18130,29 +18200,29 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -18162,11 +18232,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -18176,7 +18246,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -18187,12 +18257,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -18203,7 +18273,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -18221,12 +18291,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -18238,7 +18308,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
@@ -18249,12 +18319,12 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
@@ -18263,7 +18333,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -18273,7 +18343,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -18306,7 +18376,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="17" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="118" t="str">
         <f>A3</f>
         <v>srno</v>
@@ -18335,8 +18405,20 @@
         <f>A2</f>
         <v>Id</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="47" t="str">
+        <f>A10</f>
+        <v>fc_amount</v>
+      </c>
+      <c r="I17" s="47" t="str">
+        <f>A11</f>
+        <v>fc_rate</v>
+      </c>
+      <c r="J17" s="47" t="str">
+        <f>A12</f>
+        <v>currency</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="119">
         <v>1</v>
       </c>
@@ -18357,7 +18439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="119">
         <v>2</v>
       </c>
@@ -18378,7 +18460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="120">
         <v>1</v>
       </c>
@@ -18386,7 +18468,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D20" s="120">
         <v>600</v>
@@ -18399,7 +18481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="120">
         <v>2</v>
       </c>
@@ -18420,7 +18502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="119">
         <v>1</v>
       </c>
@@ -18428,7 +18510,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D22" s="119">
         <v>200</v>
@@ -18441,7 +18523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="119">
         <v>2</v>
       </c>
@@ -18518,11 +18600,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -18530,13 +18612,13 @@
     </row>
     <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -18546,13 +18628,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -18562,13 +18644,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -18576,23 +18658,23 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -18601,12 +18683,12 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>193</v>
@@ -18615,7 +18697,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -18631,12 +18713,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
@@ -18647,12 +18729,12 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>193</v>
@@ -18661,7 +18743,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -18670,10 +18752,10 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -18766,7 +18848,7 @@
         <v>44197</v>
       </c>
       <c r="D19" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -18783,13 +18865,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20" s="55">
         <v>44197</v>
       </c>
       <c r="D20" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -18813,7 +18895,7 @@
         <v>44198</v>
       </c>
       <c r="D21" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F21">
         <v>300</v>
@@ -18837,7 +18919,7 @@
         <v>44198</v>
       </c>
       <c r="D22" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F22">
         <v>300</v>
@@ -18861,7 +18943,7 @@
         <v>44199</v>
       </c>
       <c r="D23" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F23">
         <v>200</v>
@@ -18881,7 +18963,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -18895,8 +18977,8 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="L24" s="121" t="s">
-        <v>798</v>
+      <c r="L24" s="131" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -18907,7 +18989,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
@@ -18921,7 +19003,7 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="L25" s="121"/>
+      <c r="L25" s="131"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
@@ -18931,7 +19013,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
@@ -18945,7 +19027,7 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="L26" s="121"/>
+      <c r="L26" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18962,8 +19044,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:I26"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19015,7 +19097,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>225</v>
@@ -19027,14 +19109,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -19071,7 +19153,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>35</v>
@@ -19546,11 +19628,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -19558,11 +19640,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -19570,7 +19652,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -19579,12 +19661,12 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -19593,19 +19675,19 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>3</v>
@@ -19627,12 +19709,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>193</v>
@@ -19641,43 +19723,43 @@
         <v>0</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19856,32 +19938,32 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>85</v>
@@ -19904,7 +19986,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="62"/>
       <c r="B31" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C31" s="21">
         <v>100</v>
@@ -19914,7 +19996,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="62"/>
       <c r="B32" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="21">
         <v>100</v>
@@ -19929,7 +20011,7 @@
         <v>92</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C33" s="21">
         <v>150</v>
@@ -19939,7 +20021,7 @@
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="66"/>
       <c r="B34" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C34" s="24">
         <v>150</v>
@@ -20005,11 +20087,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -20019,14 +20101,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -20035,7 +20117,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -20044,12 +20126,12 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -20058,7 +20140,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -20076,12 +20158,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -20090,43 +20172,43 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -20195,7 +20277,7 @@
         <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C17">
         <v>-50</v>
@@ -20204,7 +20286,7 @@
         <v>-2</v>
       </c>
       <c r="E17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -20215,7 +20297,7 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C18">
         <v>560</v>
@@ -20237,7 +20319,7 @@
         <v>211</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -20246,7 +20328,7 @@
         <v>-8</v>
       </c>
       <c r="E20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -20257,7 +20339,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -20268,7 +20350,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C22">
         <v>150</v>
@@ -20279,7 +20361,7 @@
         <v>211</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -20288,7 +20370,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -20300,21 +20382,21 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="63" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>85</v>
@@ -20337,7 +20419,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="62"/>
       <c r="C29" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D29" s="21">
         <v>100</v>
@@ -20347,7 +20429,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="62"/>
       <c r="C30" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D30" s="21">
         <v>100</v>
@@ -20362,7 +20444,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D31" s="21">
         <v>150</v>
@@ -20372,7 +20454,7 @@
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D32" s="24">
         <v>150</v>
@@ -20466,12 +20548,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -20526,10 +20608,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>601</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -20539,10 +20621,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -20552,10 +20634,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>603</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>607</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -20565,10 +20647,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -20576,10 +20658,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -20595,7 +20677,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20642,7 +20724,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
@@ -20752,7 +20834,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20816,7 +20898,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
@@ -20830,12 +20912,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -21237,7 +21319,7 @@
       </c>
       <c r="K17" s="4">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="L17" t="s">
         <v>126</v>
@@ -21277,7 +21359,7 @@
       </c>
       <c r="K18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="L18" t="s">
         <v>127</v>
@@ -21317,7 +21399,7 @@
       </c>
       <c r="K19" s="4">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="L19" t="s">
         <v>126</v>
@@ -21357,7 +21439,7 @@
       </c>
       <c r="K20" s="4">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="L20" t="s">
         <v>127</v>
@@ -21397,7 +21479,7 @@
       </c>
       <c r="K21" s="87">
         <f ca="1">TODAY()</f>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>126</v>
@@ -21447,8 +21529,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21686,7 +21768,7 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -21831,32 +21913,32 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="124" t="s">
-        <v>700</v>
+      <c r="B31" s="123" t="s">
+        <v>694</v>
       </c>
       <c r="C31" s="80"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="79" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C32" s="80"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="123" t="s">
-        <v>814</v>
+      <c r="B34" s="122" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="123" t="s">
-        <v>813</v>
+      <c r="B35" s="122" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="26" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="26" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="831">
   <si>
     <t>cloumn</t>
   </si>
@@ -2125,9 +2125,6 @@
     </r>
   </si>
   <si>
-    <t>must be &gt; issue date</t>
-  </si>
-  <si>
     <t>can_delete</t>
   </si>
   <si>
@@ -2570,6 +2567,15 @@
   </si>
   <si>
     <t>party code- for import- Creditors, for export - Customers</t>
+  </si>
+  <si>
+    <t>must be &gt; LC date</t>
+  </si>
+  <si>
+    <t>&gt; isse date</t>
+  </si>
+  <si>
+    <t>fy - company id</t>
   </si>
 </sst>
 </file>
@@ -3988,10 +3994,10 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4090,7 +4096,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -4266,7 +4272,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4364,7 +4370,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="121" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4586,27 +4592,27 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -4846,7 +4852,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -4865,7 +4871,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10" t="s">
@@ -4903,7 +4909,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
@@ -4912,7 +4918,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -4927,7 +4933,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4948,7 +4954,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -4969,7 +4975,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>35</v>
@@ -5352,7 +5358,7 @@
         <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I30" t="s">
         <v>379</v>
@@ -5382,7 +5388,7 @@
       </c>
       <c r="G33" s="79"/>
       <c r="H33" s="79" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -5395,12 +5401,12 @@
       </c>
       <c r="G34" s="79"/>
       <c r="H34" s="79" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C35"/>
     </row>
@@ -5480,7 +5486,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -5498,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -5560,7 +5566,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -5817,12 +5823,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -6085,7 +6091,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -6119,7 +6125,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -6152,18 +6158,18 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -6248,13 +6254,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -6278,7 +6284,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -6302,7 +6308,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -6326,7 +6332,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -6350,7 +6356,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -6374,7 +6380,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -6558,7 +6564,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>216</v>
@@ -6726,7 +6732,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>199</v>
@@ -6741,7 +6747,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>222</v>
@@ -6772,7 +6778,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -6859,7 +6865,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -7032,7 +7038,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -7167,7 +7173,7 @@
     </row>
     <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>35</v>
@@ -7285,29 +7291,29 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C46" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7315,7 +7321,7 @@
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7323,7 +7329,7 @@
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -7801,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>17</v>
@@ -7852,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>16</v>
@@ -7954,7 +7960,7 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>18</v>
@@ -10355,7 +10361,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -10591,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I3" s="79" t="s">
         <v>632</v>
@@ -12783,13 +12789,13 @@
         <v>407</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I3" t="s">
         <v>435</v>
@@ -12802,7 +12808,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -12887,7 +12893,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>402</v>
@@ -12929,7 +12935,7 @@
         <v>609</v>
       </c>
       <c r="L11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -12949,7 +12955,7 @@
         <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L12">
         <v>200</v>
@@ -12958,7 +12964,7 @@
         <v>551</v>
       </c>
       <c r="N12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -12977,10 +12983,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="129" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L14">
         <v>400</v>
@@ -13260,7 +13266,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B28" s="93">
         <v>1</v>
@@ -13285,21 +13291,21 @@
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K33">
         <v>300</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
+        <v>737</v>
+      </c>
+      <c r="M35" t="s">
         <v>738</v>
-      </c>
-      <c r="M35" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -13313,7 +13319,7 @@
         <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -13335,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M37" s="79"/>
     </row>
@@ -13344,7 +13350,7 @@
         <v>-50</v>
       </c>
       <c r="G38" s="79" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M38" s="79"/>
     </row>
@@ -13353,7 +13359,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="79" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M39" s="79"/>
     </row>
@@ -13373,16 +13379,16 @@
         <v>945</v>
       </c>
       <c r="D42" t="s">
+        <v>810</v>
+      </c>
+      <c r="E42" t="s">
         <v>811</v>
       </c>
-      <c r="E42" t="s">
-        <v>812</v>
-      </c>
       <c r="G42" s="85" t="s">
+        <v>742</v>
+      </c>
+      <c r="M42" s="85" t="s">
         <v>743</v>
-      </c>
-      <c r="M42" s="85" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -13570,7 +13576,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C14"/>
     </row>
@@ -13579,7 +13585,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C15"/>
     </row>
@@ -13588,7 +13594,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C16"/>
     </row>
@@ -13597,7 +13603,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C17"/>
     </row>
@@ -13642,7 +13648,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="I1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -13703,7 +13709,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="M5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -13725,7 +13731,7 @@
         <v>103</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M6" s="13">
         <v>200</v>
@@ -13738,7 +13744,7 @@
       </c>
       <c r="P6" s="79"/>
       <c r="Q6" s="79" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="R6" s="79"/>
       <c r="S6" s="79" t="s">
@@ -13805,7 +13811,7 @@
         <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M8">
         <v>400</v>
@@ -13891,7 +13897,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="O11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -13968,7 +13974,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -14333,7 +14339,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="L2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -14353,7 +14359,7 @@
         <v>103</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L3" s="13">
         <v>200</v>
@@ -14366,7 +14372,7 @@
       </c>
       <c r="O3" s="112"/>
       <c r="P3" s="112" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q3" s="112"/>
       <c r="R3" s="112" t="s">
@@ -14375,7 +14381,7 @@
       <c r="S3" s="97"/>
       <c r="T3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V3" s="97" t="s">
         <v>85</v>
@@ -14457,7 +14463,7 @@
         <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L5">
         <v>400</v>
@@ -14520,10 +14526,10 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="101" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V6" s="101" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W6" s="102">
         <v>30</v>
@@ -14568,7 +14574,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -14601,7 +14607,7 @@
         <v>397</v>
       </c>
       <c r="N9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -14690,7 +14696,7 @@
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N15" s="96" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97"/>
@@ -14699,7 +14705,7 @@
       <c r="S15" s="97"/>
       <c r="T15" s="97"/>
       <c r="U15" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V15" s="97" t="s">
         <v>85</v>
@@ -14768,7 +14774,7 @@
         <v>-1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -14802,7 +14808,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -14812,10 +14818,10 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="101" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V18" s="101" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W18" s="102">
         <v>30</v>
@@ -14829,7 +14835,7 @@
         <v>560</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
@@ -14940,20 +14946,20 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -15076,7 +15082,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="L1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N1" s="96"/>
       <c r="O1" s="97"/>
@@ -15108,7 +15114,7 @@
         <v>103</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L2" s="13">
         <v>200</v>
@@ -15121,7 +15127,7 @@
       </c>
       <c r="O2" s="106"/>
       <c r="P2" s="106" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q2" s="106"/>
       <c r="R2" s="106" t="s">
@@ -15130,7 +15136,7 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>85</v>
@@ -15146,7 +15152,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -15210,7 +15216,7 @@
         <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="L4">
         <v>400</v>
@@ -15285,10 +15291,10 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="101" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V5" s="101" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W5" s="102">
         <v>30</v>
@@ -15342,7 +15348,7 @@
         <v>397</v>
       </c>
       <c r="N7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -15464,7 +15470,7 @@
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V13" s="97" t="s">
         <v>85</v>
@@ -15478,7 +15484,7 @@
         <v>103</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P14" s="59">
         <v>200</v>
@@ -15563,10 +15569,10 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="101" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V16" s="101" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W16" s="102">
         <v>30</v>
@@ -15879,7 +15885,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -15888,7 +15894,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>396</v>
@@ -15937,7 +15943,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -15965,7 +15971,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -15979,7 +15985,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -16016,7 +16022,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -16030,14 +16036,14 @@
         <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -16436,10 +16442,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16505,7 +16511,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>462</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>480</v>
@@ -16518,7 +16524,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -16543,7 +16549,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -16559,12 +16565,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
@@ -16620,9 +16626,7 @@
       <c r="E12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>397</v>
-      </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -16773,11 +16777,11 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -16793,7 +16797,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>680</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -16812,41 +16816,50 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>830</v>
+      </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="1"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F31" s="55"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F32" s="55"/>
@@ -16880,6 +16893,9 @@
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F42" s="55"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17097,8 +17113,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17162,7 +17178,7 @@
         <v>476</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>481</v>
@@ -17213,7 +17229,9 @@
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -17388,7 +17406,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -17456,10 +17474,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -17472,7 +17490,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -17484,17 +17502,17 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -17505,14 +17523,14 @@
         <v>490</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -17543,7 +17561,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -17557,7 +17575,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -17573,7 +17591,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -17587,7 +17605,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -17599,7 +17617,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -17615,7 +17633,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -17629,7 +17647,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -17645,7 +17663,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -17659,13 +17677,13 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
@@ -17689,7 +17707,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>495</v>
@@ -17766,7 +17784,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F28" s="10"/>
     </row>
@@ -17780,13 +17798,13 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>7</v>
@@ -17794,13 +17812,13 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>98</v>
@@ -17808,7 +17826,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F31" s="10"/>
     </row>
@@ -17822,7 +17840,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F32" s="10"/>
     </row>
@@ -17836,13 +17854,13 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>510</v>
@@ -17850,7 +17868,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>511</v>
@@ -17866,7 +17884,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F35" s="10"/>
     </row>
@@ -17882,7 +17900,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>571</v>
@@ -17898,7 +17916,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>511</v>
@@ -17914,10 +17932,10 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -17932,7 +17950,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F39" s="10"/>
     </row>
@@ -17980,7 +17998,7 @@
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F42" s="10"/>
     </row>
@@ -17996,7 +18014,7 @@
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F43" s="10"/>
     </row>
@@ -18012,7 +18030,7 @@
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F44" s="10"/>
     </row>
@@ -18028,7 +18046,7 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -18101,7 +18119,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>32</v>
@@ -18110,38 +18128,38 @@
         <v>44197</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B53" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C53" s="117">
         <v>44198</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>784</v>
+      </c>
+      <c r="B54" t="s">
         <v>785</v>
-      </c>
-      <c r="B54" t="s">
-        <v>786</v>
       </c>
       <c r="C54" s="117">
         <v>44199</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -18468,7 +18486,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D20" s="120">
         <v>600</v>
@@ -18510,7 +18528,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D22" s="119">
         <v>200</v>
@@ -18612,13 +18630,13 @@
     </row>
     <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -18634,7 +18652,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -18644,13 +18662,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -18664,12 +18682,12 @@
         <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -18848,7 +18866,7 @@
         <v>44197</v>
       </c>
       <c r="D19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -18865,13 +18883,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C20" s="55">
         <v>44197</v>
       </c>
       <c r="D20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -18895,7 +18913,7 @@
         <v>44198</v>
       </c>
       <c r="D21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F21">
         <v>300</v>
@@ -18919,7 +18937,7 @@
         <v>44198</v>
       </c>
       <c r="D22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F22">
         <v>300</v>
@@ -18943,7 +18961,7 @@
         <v>44199</v>
       </c>
       <c r="D23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F23">
         <v>200</v>
@@ -18963,7 +18981,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -18978,7 +18996,7 @@
         <v>6</v>
       </c>
       <c r="L24" s="131" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -18989,7 +19007,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
@@ -19013,7 +19031,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
@@ -19097,7 +19115,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>225</v>
@@ -19109,14 +19127,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -19153,7 +19171,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>35</v>
@@ -19938,15 +19956,15 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>427</v>
@@ -20724,7 +20742,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
@@ -20898,7 +20916,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
@@ -20912,12 +20930,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -21319,7 +21337,7 @@
       </c>
       <c r="K17" s="4">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="L17" t="s">
         <v>126</v>
@@ -21359,7 +21377,7 @@
       </c>
       <c r="K18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="L18" t="s">
         <v>127</v>
@@ -21399,7 +21417,7 @@
       </c>
       <c r="K19" s="4">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="L19" t="s">
         <v>126</v>
@@ -21439,7 +21457,7 @@
       </c>
       <c r="K20" s="4">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="L20" t="s">
         <v>127</v>
@@ -21479,7 +21497,7 @@
       </c>
       <c r="K21" s="87">
         <f ca="1">TODAY()</f>
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>126</v>
@@ -21768,7 +21786,7 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -21921,7 +21939,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="123" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C31" s="80"/>
     </row>
@@ -21933,12 +21951,12 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="122" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="122" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="26" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="27" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -1261,9 +1261,6 @@
     <t>dr+ &amp; cr -</t>
   </si>
   <si>
-    <t>op_balance</t>
-  </si>
-  <si>
     <t>fc_amount</t>
   </si>
   <si>
@@ -2563,9 +2560,6 @@
     <t>only ledgers where-account hed- bs= no----for that company</t>
   </si>
   <si>
-    <t>only ledgers where-account hed- bs= yes for that company</t>
-  </si>
-  <si>
     <t>party code- for import- Creditors, for export - Customers</t>
   </si>
   <si>
@@ -2576,6 +2570,12 @@
   </si>
   <si>
     <t>fy - company id</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>only ledgers where-account head- bs= yes for that company</t>
   </si>
 </sst>
 </file>
@@ -4052,7 +4052,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -4083,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -4096,7 +4096,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="48" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -4109,17 +4109,17 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4127,12 +4127,12 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4148,7 +4148,7 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4156,12 +4156,12 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4370,7 +4370,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="121" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4592,27 +4592,27 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -4679,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -4871,7 +4871,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10" t="s">
@@ -4909,7 +4909,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
@@ -4918,7 +4918,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4954,7 +4954,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -4975,7 +4975,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>35</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5054,7 +5054,7 @@
         <v>145</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5062,10 +5062,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D16" s="35">
         <v>4</v>
@@ -5083,10 +5083,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D17" s="35">
         <v>4</v>
@@ -5104,10 +5104,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D18" s="35">
         <v>4</v>
@@ -5125,10 +5125,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D19" s="35">
         <v>4</v>
@@ -5188,10 +5188,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D22" s="35">
         <v>4</v>
@@ -5209,10 +5209,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D23" s="35">
         <v>4</v>
@@ -5230,10 +5230,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D24" s="35">
         <v>4</v>
@@ -5251,10 +5251,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D25" s="35">
         <v>4</v>
@@ -5275,7 +5275,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D26" s="35">
         <v>4</v>
@@ -5296,7 +5296,7 @@
         <v>183</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D27" s="35">
         <v>4</v>
@@ -5317,7 +5317,7 @@
         <v>184</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D28" s="35">
         <v>4</v>
@@ -5338,7 +5338,7 @@
         <v>185</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D29" s="35">
         <v>4</v>
@@ -5358,7 +5358,7 @@
         <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I30" t="s">
         <v>379</v>
@@ -5380,33 +5380,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C33"/>
       <c r="F33" s="79" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G33" s="79"/>
       <c r="H33" s="79" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C34"/>
       <c r="F34" s="79" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G34" s="79"/>
       <c r="H34" s="79" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C35"/>
     </row>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -5504,7 +5504,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -5566,7 +5566,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.35">
@@ -5777,7 +5777,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>217</v>
@@ -5823,12 +5823,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -5978,7 +5978,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>217</v>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -6158,18 +6158,18 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>35</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -6254,13 +6254,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -6284,7 +6284,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -6308,7 +6308,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -6332,7 +6332,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -6356,7 +6356,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -6380,7 +6380,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -6564,7 +6564,7 @@
         <v>15</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>216</v>
@@ -6669,7 +6669,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>222</v>
@@ -6690,7 +6690,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>222</v>
@@ -6711,7 +6711,7 @@
         <v>22</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>199</v>
@@ -6721,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>49</v>
@@ -6732,7 +6732,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>199</v>
@@ -6747,7 +6747,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>222</v>
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>49</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -6773,12 +6773,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6865,7 @@
         <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -6877,13 +6877,13 @@
     </row>
     <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -6934,7 +6934,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6945,7 +6945,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6956,7 +6956,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -6967,7 +6967,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6978,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -6989,7 +6989,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -7000,7 +7000,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -7011,7 +7011,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -7022,7 +7022,7 @@
         <v>193</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -7033,18 +7033,18 @@
         <v>38</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -7058,7 +7058,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7069,7 +7069,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7080,7 +7080,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7091,7 +7091,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7102,7 +7102,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7113,7 +7113,7 @@
         <v>98</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7124,7 +7124,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7135,7 +7135,7 @@
         <v>98</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7146,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7157,7 +7157,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7168,12 +7168,12 @@
         <v>7</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>35</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -7267,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>205</v>
@@ -7291,29 +7291,29 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C45" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C46" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -7321,7 +7321,7 @@
         <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -7329,7 +7329,7 @@
         <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -7389,14 +7389,14 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -7533,7 +7533,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -7595,7 +7595,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -7636,7 +7636,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -7716,12 +7716,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -7807,7 +7807,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>17</v>
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>16</v>
@@ -7960,7 +7960,7 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>18</v>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>35</v>
@@ -10361,12 +10361,12 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -10388,10 +10388,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>3</v>
@@ -10407,7 +10407,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10466,7 +10466,7 @@
         <v>378</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10486,7 +10486,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -10504,12 +10504,12 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -10521,7 +10521,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -10565,7 +10565,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -10586,7 +10586,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -10597,10 +10597,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -10611,7 +10611,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -10628,14 +10628,14 @@
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10"/>
       <c r="I5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -10699,10 +10699,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -10713,10 +10713,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D13">
         <v>121</v>
@@ -10727,10 +10727,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D14">
         <v>122</v>
@@ -10741,10 +10741,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D15">
         <v>123</v>
@@ -10755,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C16" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D16">
         <v>250</v>
@@ -10769,10 +10769,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D17">
         <v>350</v>
@@ -10783,10 +10783,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D18">
         <v>450</v>
@@ -10797,10 +10797,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D19">
         <v>565</v>
@@ -10811,10 +10811,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D20">
         <v>674</v>
@@ -10825,10 +10825,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D21">
         <v>783</v>
@@ -10839,10 +10839,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C22" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D22">
         <v>892</v>
@@ -10853,10 +10853,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D23">
         <v>1001</v>
@@ -10867,10 +10867,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D24">
         <v>500</v>
@@ -10881,10 +10881,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D25">
         <v>80</v>
@@ -10895,10 +10895,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D26">
         <v>120</v>
@@ -10909,10 +10909,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D27">
         <v>121</v>
@@ -10923,10 +10923,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D28">
         <v>122</v>
@@ -10937,10 +10937,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C29" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D29">
         <v>123</v>
@@ -10951,10 +10951,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D30">
         <v>250</v>
@@ -10965,10 +10965,10 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D31">
         <v>350</v>
@@ -10979,10 +10979,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D32">
         <v>450</v>
@@ -10993,10 +10993,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D33">
         <v>565</v>
@@ -11007,10 +11007,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D34">
         <v>674</v>
@@ -11021,10 +11021,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D35">
         <v>783</v>
@@ -11035,10 +11035,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D36">
         <v>892</v>
@@ -11049,10 +11049,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D37">
         <v>1001</v>
@@ -11063,10 +11063,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -11077,10 +11077,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>35</v>
@@ -11200,7 +11200,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -11424,12 +11424,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11438,7 +11438,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>193</v>
@@ -11541,7 +11541,7 @@
         <v>367</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -11844,7 +11844,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -11865,12 +11865,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -11885,7 +11885,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C16" t="s">
         <v>383</v>
@@ -12046,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C17" t="s">
         <v>383</v>
@@ -12066,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C19" t="s">
         <v>181</v>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C20" t="s">
         <v>383</v>
@@ -12123,7 +12123,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C22" t="s">
         <v>181</v>
@@ -12163,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C23" t="s">
         <v>383</v>
@@ -12180,7 +12180,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C24" t="s">
         <v>383</v>
@@ -12197,7 +12197,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C25" t="s">
         <v>181</v>
@@ -12214,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C26" t="s">
         <v>181</v>
@@ -12231,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C27" t="s">
         <v>181</v>
@@ -12248,7 +12248,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C28" t="s">
         <v>383</v>
@@ -12265,7 +12265,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C29" t="s">
         <v>181</v>
@@ -12337,12 +12337,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>193</v>
@@ -12729,8 +12729,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12758,7 +12758,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="I1" s="69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="F2" s="10"/>
       <c r="I2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -12786,19 +12786,19 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="I3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -12808,7 +12808,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -12819,7 +12819,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>398</v>
+        <v>829</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -12837,7 +12837,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -12848,12 +12848,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -12864,12 +12864,12 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
@@ -12887,38 +12887,38 @@
     </row>
     <row r="9" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -12932,10 +12932,10 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -12949,22 +12949,22 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J12" t="s">
         <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L12">
         <v>200</v>
       </c>
       <c r="M12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -12978,21 +12978,21 @@
         <v>300</v>
       </c>
       <c r="M13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="129" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L14">
         <v>400</v>
       </c>
       <c r="M14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="C15" s="72" t="str">
         <f>A5</f>
-        <v>op_balance</v>
+        <v>balance</v>
       </c>
       <c r="D15" s="72" t="str">
         <f>A8</f>
@@ -13064,7 +13064,7 @@
         <v>-2</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F17" s="21">
         <v>25</v>
@@ -13124,7 +13124,7 @@
         <v>-8</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
@@ -13184,7 +13184,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F23" s="21">
         <v>100</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B28" s="93">
         <v>1</v>
@@ -13291,21 +13291,21 @@
         <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K33">
         <v>300</v>
       </c>
       <c r="M33" s="56" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G35" t="s">
+        <v>736</v>
+      </c>
+      <c r="M35" t="s">
         <v>737</v>
-      </c>
-      <c r="M35" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -13319,7 +13319,7 @@
         <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -13341,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M37" s="79"/>
     </row>
@@ -13350,7 +13350,7 @@
         <v>-50</v>
       </c>
       <c r="G38" s="79" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M38" s="79"/>
     </row>
@@ -13359,7 +13359,7 @@
         <v>40</v>
       </c>
       <c r="G39" s="79" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M39" s="79"/>
     </row>
@@ -13379,16 +13379,16 @@
         <v>945</v>
       </c>
       <c r="D42" t="s">
+        <v>809</v>
+      </c>
+      <c r="E42" t="s">
         <v>810</v>
       </c>
-      <c r="E42" t="s">
-        <v>811</v>
-      </c>
       <c r="G42" s="85" t="s">
+        <v>741</v>
+      </c>
+      <c r="M42" s="85" t="s">
         <v>742</v>
-      </c>
-      <c r="M42" s="85" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
@@ -13576,7 +13576,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C14"/>
     </row>
@@ -13585,7 +13585,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C15"/>
     </row>
@@ -13594,7 +13594,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C16"/>
     </row>
@@ -13603,7 +13603,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C17"/>
     </row>
@@ -13619,8 +13619,8 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:S9"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13648,7 +13648,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="I1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -13669,12 +13669,12 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -13683,14 +13683,14 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -13709,12 +13709,12 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="M5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -13725,35 +13725,35 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>103</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M6" s="13">
         <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O6" s="79" t="s">
         <v>60</v>
       </c>
       <c r="P6" s="79"/>
       <c r="Q6" s="79" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R6" s="79"/>
       <c r="S6" s="79" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -13764,7 +13764,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K7" t="s">
         <v>101</v>
@@ -13776,7 +13776,7 @@
         <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O7" s="79">
         <v>1</v>
@@ -13788,7 +13788,7 @@
         <v>44197</v>
       </c>
       <c r="R7" s="79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S7" s="95">
         <v>44201</v>
@@ -13796,13 +13796,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -13811,7 +13811,7 @@
         <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M8">
         <v>400</v>
@@ -13826,7 +13826,7 @@
         <v>44228</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S8" s="95">
         <v>44232</v>
@@ -13859,7 +13859,7 @@
         <v>44256</v>
       </c>
       <c r="R9" s="79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S9" s="95">
         <v>44260</v>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
@@ -13885,37 +13885,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="O11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O12" s="94">
         <v>1</v>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -14011,10 +14011,10 @@
         <v>fc_rate</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -14057,7 +14057,7 @@
         <v>-2</v>
       </c>
       <c r="G19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H19">
         <v>25</v>
@@ -14126,7 +14126,7 @@
         <v>-8</v>
       </c>
       <c r="G22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -14195,7 +14195,7 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H25">
         <v>100</v>
@@ -14293,8 +14293,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14339,17 +14339,17 @@
       </c>
       <c r="F2" s="10"/>
       <c r="L2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -14359,29 +14359,29 @@
         <v>103</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L3" s="13">
         <v>200</v>
       </c>
       <c r="M3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N3" s="111" t="s">
         <v>60</v>
       </c>
       <c r="O3" s="112"/>
       <c r="P3" s="112" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q3" s="112"/>
       <c r="R3" s="112" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S3" s="97"/>
       <c r="T3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="V3" s="97" t="s">
         <v>85</v>
@@ -14392,14 +14392,14 @@
     </row>
     <row r="4" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -14415,7 +14415,7 @@
         <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N4" s="107">
         <v>1</v>
@@ -14427,7 +14427,7 @@
         <v>44197</v>
       </c>
       <c r="Q4" s="108" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R4" s="109">
         <v>44201</v>
@@ -14446,7 +14446,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -14457,13 +14457,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J5" t="s">
         <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L5">
         <v>400</v>
@@ -14478,7 +14478,7 @@
         <v>44228</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R5" s="110">
         <v>44232</v>
@@ -14495,7 +14495,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -14506,7 +14506,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N6" s="105">
         <v>3</v>
@@ -14518,7 +14518,7 @@
         <v>44256</v>
       </c>
       <c r="Q6" s="106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R6" s="110">
         <v>44260</v>
@@ -14526,10 +14526,10 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="101" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V6" s="101" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W6" s="102">
         <v>30</v>
@@ -14569,12 +14569,12 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -14591,7 +14591,7 @@
     </row>
     <row r="9" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>193</v>
@@ -14600,26 +14600,26 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
         <v>397</v>
       </c>
       <c r="N9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -14635,20 +14635,20 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N11" s="94">
         <v>2</v>
@@ -14696,7 +14696,7 @@
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N15" s="96" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97"/>
@@ -14705,7 +14705,7 @@
       <c r="S15" s="97"/>
       <c r="T15" s="97"/>
       <c r="U15" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="V15" s="97" t="s">
         <v>85</v>
@@ -14740,10 +14740,10 @@
         <v>fc_rate</v>
       </c>
       <c r="G16" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>551</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>552</v>
       </c>
       <c r="I16" s="43" t="str">
         <f>A8</f>
@@ -14774,7 +14774,7 @@
         <v>-1</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
@@ -14793,7 +14793,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C18">
         <v>-50</v>
@@ -14802,13 +14802,13 @@
         <v>-2</v>
       </c>
       <c r="E18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F18">
         <v>25</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
@@ -14818,10 +14818,10 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="101" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V18" s="101" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W18" s="102">
         <v>30</v>
@@ -14829,13 +14829,13 @@
     </row>
     <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C19">
         <v>560</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="24"/>
@@ -14871,7 +14871,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -14880,7 +14880,7 @@
         <v>-8</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -14894,7 +14894,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -14908,7 +14908,7 @@
         <v>211</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -14922,7 +14922,7 @@
         <v>211</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C24">
         <v>150</v>
@@ -14931,7 +14931,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -14946,34 +14946,34 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B29" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>85</v>
@@ -14996,7 +14996,7 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B31" s="62"/>
       <c r="C31" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D31" s="21">
         <v>100</v>
@@ -15006,7 +15006,7 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B32" s="62"/>
       <c r="C32" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D32" s="21">
         <v>100</v>
@@ -15021,7 +15021,7 @@
         <v>92</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D33" s="21">
         <v>150</v>
@@ -15031,7 +15031,7 @@
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="66"/>
       <c r="C34" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D34" s="24">
         <v>150</v>
@@ -15082,7 +15082,7 @@
       <c r="F1" s="45"/>
       <c r="G1" s="45"/>
       <c r="L1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="N1" s="96"/>
       <c r="O1" s="97"/>
@@ -15114,29 +15114,29 @@
         <v>103</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="L2" s="13">
         <v>200</v>
       </c>
       <c r="M2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N2" s="105" t="s">
         <v>60</v>
       </c>
       <c r="O2" s="106"/>
       <c r="P2" s="106" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q2" s="106"/>
       <c r="R2" s="106" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>85</v>
@@ -15147,12 +15147,12 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -15168,7 +15168,7 @@
         <v>300</v>
       </c>
       <c r="M3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N3" s="107">
         <v>1</v>
@@ -15180,7 +15180,7 @@
         <v>44197</v>
       </c>
       <c r="Q3" s="108" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R3" s="109">
         <v>44201</v>
@@ -15199,14 +15199,14 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -15216,7 +15216,7 @@
         <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="L4">
         <v>400</v>
@@ -15231,7 +15231,7 @@
         <v>44228</v>
       </c>
       <c r="Q4" s="106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R4" s="110">
         <v>44232</v>
@@ -15248,7 +15248,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -15259,7 +15259,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>103</v>
@@ -15271,7 +15271,7 @@
         <v>200</v>
       </c>
       <c r="M5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N5" s="105">
         <v>3</v>
@@ -15283,7 +15283,7 @@
         <v>44256</v>
       </c>
       <c r="Q5" s="106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R5" s="110">
         <v>44260</v>
@@ -15291,10 +15291,10 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="101" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V5" s="101" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W5" s="102">
         <v>30</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -15313,7 +15313,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="24"/>
@@ -15348,12 +15348,12 @@
         <v>397</v>
       </c>
       <c r="N7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -15362,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
@@ -15383,14 +15383,14 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -15409,20 +15409,20 @@
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N10" s="94">
         <v>3</v>
@@ -15470,7 +15470,7 @@
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="V13" s="97" t="s">
         <v>85</v>
@@ -15484,13 +15484,13 @@
         <v>103</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P14" s="59">
         <v>200</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -15531,10 +15531,10 @@
         <v>fc_rate</v>
       </c>
       <c r="G15" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>551</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>552</v>
       </c>
       <c r="N15" s="99"/>
       <c r="O15" s="100"/>
@@ -15569,10 +15569,10 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="101" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="V16" s="101" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W16" s="102">
         <v>30</v>
@@ -15583,7 +15583,7 @@
         <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C17">
         <v>-50</v>
@@ -15592,7 +15592,7 @@
         <v>-2</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -15617,7 +15617,7 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C18">
         <v>560</v>
@@ -15639,7 +15639,7 @@
         <v>211</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -15648,7 +15648,7 @@
         <v>-8</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -15670,7 +15670,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -15689,7 +15689,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22">
         <v>150</v>
@@ -15708,7 +15708,7 @@
         <v>211</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -15717,7 +15717,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -15729,21 +15729,21 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B27" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>85</v>
@@ -15766,7 +15766,7 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B29" s="62"/>
       <c r="C29" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D29" s="21">
         <v>100</v>
@@ -15776,7 +15776,7 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B30" s="62"/>
       <c r="C30" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D30" s="21">
         <v>100</v>
@@ -15791,7 +15791,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D31" s="21">
         <v>150</v>
@@ -15801,7 +15801,7 @@
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" s="24">
         <v>150</v>
@@ -15823,7 +15823,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -15885,7 +15885,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>396</v>
@@ -15906,7 +15906,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -15932,7 +15932,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>98</v>
@@ -15943,12 +15943,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>38</v>
@@ -15960,7 +15960,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>98</v>
@@ -15971,12 +15971,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
@@ -15985,7 +15985,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -16006,7 +16006,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -16016,13 +16016,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -16030,20 +16030,20 @@
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E20">
         <v>123</v>
@@ -16157,7 +16157,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E21">
         <v>465</v>
@@ -16183,7 +16183,7 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E22">
         <v>4621122</v>
@@ -16209,7 +16209,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E23">
         <v>312561</v>
@@ -16235,7 +16235,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G24">
         <v>80</v>
@@ -16261,7 +16261,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G25">
         <v>80</v>
@@ -16287,7 +16287,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G26">
         <v>58</v>
@@ -16313,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -16339,7 +16339,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E28">
         <v>55</v>
@@ -16365,7 +16365,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E29">
         <v>5445</v>
@@ -16391,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E30">
         <v>44</v>
@@ -16417,7 +16417,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E31">
         <v>444</v>
@@ -16444,7 +16444,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -16492,13 +16492,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -16508,13 +16508,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -16524,7 +16524,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -16549,40 +16549,40 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5"/>
@@ -16592,7 +16592,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="5"/>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
@@ -16616,7 +16616,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>7</v>
@@ -16630,10 +16630,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>462</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>50</v>
@@ -16644,7 +16644,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>7</v>
@@ -16658,7 +16658,7 @@
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>7</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>7</v>
@@ -16714,10 +16714,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>50</v>
@@ -16730,10 +16730,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -16744,10 +16744,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -16758,10 +16758,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -16772,21 +16772,21 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>98</v>
@@ -16797,12 +16797,12 @@
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>193</v>
@@ -16821,7 +16821,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -16985,12 +16985,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -17045,10 +17045,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -17058,10 +17058,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -17071,10 +17071,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -17084,10 +17084,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17095,10 +17095,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -17161,12 +17161,12 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -17175,13 +17175,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -17191,7 +17191,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
@@ -17205,7 +17205,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>98</v>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>98</v>
@@ -17230,12 +17230,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -17249,10 +17249,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10"/>
@@ -17386,11 +17386,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -17400,13 +17400,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -17416,31 +17416,31 @@
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -17448,16 +17448,16 @@
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
@@ -17466,7 +17466,7 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -17474,63 +17474,63 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>490</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -17538,7 +17538,7 @@
         <v>130</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>50</v>
@@ -17551,23 +17551,23 @@
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>98</v>
@@ -17575,29 +17575,29 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>98</v>
@@ -17605,41 +17605,41 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>98</v>
@@ -17647,29 +17647,29 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>98</v>
@@ -17677,18 +17677,18 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
@@ -17697,39 +17697,39 @@
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>7</v>
@@ -17738,7 +17738,7 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
@@ -17747,7 +17747,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>42</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>7</v>
@@ -17768,15 +17768,15 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="H27" t="s">
         <v>501</v>
-      </c>
-      <c r="H27" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>7</v>
@@ -17784,13 +17784,13 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>98</v>
@@ -17798,13 +17798,13 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>7</v>
@@ -17812,13 +17812,13 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>98</v>
@@ -17826,7 +17826,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F31" s="10"/>
     </row>
@@ -17840,13 +17840,13 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>7</v>
@@ -17854,29 +17854,29 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>98</v>
@@ -17884,47 +17884,47 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>98</v>
@@ -17932,49 +17932,49 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>773</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>98</v>
@@ -17983,70 +17983,70 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="F46" s="10"/>
       <c r="H46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -18084,15 +18084,15 @@
         <v>371</v>
       </c>
       <c r="I47" t="s">
+        <v>503</v>
+      </c>
+      <c r="J47" t="s">
         <v>504</v>
-      </c>
-      <c r="J47" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -18119,7 +18119,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B52" s="55" t="s">
         <v>32</v>
@@ -18128,38 +18128,38 @@
         <v>44197</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B53" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C53" s="117">
         <v>44198</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>783</v>
+      </c>
+      <c r="B54" t="s">
         <v>784</v>
-      </c>
-      <c r="B54" t="s">
-        <v>785</v>
       </c>
       <c r="C54" s="117">
         <v>44199</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -18218,29 +18218,29 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -18250,11 +18250,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -18264,7 +18264,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -18275,12 +18275,12 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>193</v>
@@ -18291,7 +18291,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -18309,12 +18309,12 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -18326,7 +18326,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
@@ -18337,12 +18337,12 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
@@ -18351,7 +18351,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -18361,7 +18361,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -18486,7 +18486,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D20" s="120">
         <v>600</v>
@@ -18528,7 +18528,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D22" s="119">
         <v>200</v>
@@ -18618,11 +18618,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -18630,13 +18630,13 @@
     </row>
     <row r="4" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -18646,13 +18646,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -18662,13 +18662,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -18676,23 +18676,23 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -18701,12 +18701,12 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>193</v>
@@ -18715,7 +18715,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -18731,12 +18731,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
@@ -18747,12 +18747,12 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>193</v>
@@ -18761,7 +18761,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -18770,10 +18770,10 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -18866,7 +18866,7 @@
         <v>44197</v>
       </c>
       <c r="D19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -18883,13 +18883,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C20" s="55">
         <v>44197</v>
       </c>
       <c r="D20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -18913,7 +18913,7 @@
         <v>44198</v>
       </c>
       <c r="D21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F21">
         <v>300</v>
@@ -18937,7 +18937,7 @@
         <v>44198</v>
       </c>
       <c r="D22" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F22">
         <v>300</v>
@@ -18961,7 +18961,7 @@
         <v>44199</v>
       </c>
       <c r="D23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F23">
         <v>200</v>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -18996,7 +18996,7 @@
         <v>6</v>
       </c>
       <c r="L24" s="131" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -19007,7 +19007,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
@@ -19115,7 +19115,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>225</v>
@@ -19127,14 +19127,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -19171,7 +19171,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>35</v>
@@ -19646,11 +19646,11 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -19658,11 +19658,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -19670,7 +19670,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -19679,12 +19679,12 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -19693,19 +19693,19 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>3</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>193</v>
@@ -19741,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
@@ -19750,34 +19750,34 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -19956,32 +19956,32 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="69" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>85</v>
@@ -20004,7 +20004,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="62"/>
       <c r="B31" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C31" s="21">
         <v>100</v>
@@ -20014,7 +20014,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="62"/>
       <c r="B32" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C32" s="21">
         <v>100</v>
@@ -20029,7 +20029,7 @@
         <v>92</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C33" s="21">
         <v>150</v>
@@ -20039,7 +20039,7 @@
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="66"/>
       <c r="B34" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C34" s="24">
         <v>150</v>
@@ -20105,11 +20105,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
@@ -20119,14 +20119,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -20135,7 +20135,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>193</v>
@@ -20144,12 +20144,12 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>193</v>
@@ -20158,7 +20158,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -20181,7 +20181,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>193</v>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
@@ -20199,34 +20199,34 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -20295,7 +20295,7 @@
         <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C17">
         <v>-50</v>
@@ -20304,7 +20304,7 @@
         <v>-2</v>
       </c>
       <c r="E17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -20315,7 +20315,7 @@
         <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C18">
         <v>560</v>
@@ -20337,7 +20337,7 @@
         <v>211</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -20346,7 +20346,7 @@
         <v>-8</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -20357,7 +20357,7 @@
         <v>211</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -20368,7 +20368,7 @@
         <v>211</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22">
         <v>150</v>
@@ -20379,7 +20379,7 @@
         <v>211</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C23">
         <v>150</v>
@@ -20388,7 +20388,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -20400,21 +20400,21 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>85</v>
@@ -20437,7 +20437,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="62"/>
       <c r="C29" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D29" s="21">
         <v>100</v>
@@ -20447,7 +20447,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="62"/>
       <c r="C30" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D30" s="21">
         <v>100</v>
@@ -20462,7 +20462,7 @@
         <v>92</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D31" s="21">
         <v>150</v>
@@ -20472,7 +20472,7 @@
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="66"/>
       <c r="C32" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" s="24">
         <v>150</v>
@@ -20566,12 +20566,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -20626,10 +20626,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -20639,10 +20639,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -20652,10 +20652,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -20665,10 +20665,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -20676,10 +20676,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -20742,7 +20742,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="10" t="s">
@@ -20916,7 +20916,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="10" t="s">
@@ -20930,12 +20930,12 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -21931,32 +21931,32 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>651</v>
+      </c>
+      <c r="B30" s="81" t="s">
         <v>652</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="123" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C31" s="80"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="79" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C32" s="80"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="122" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="122" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="5" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="17" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -3279,7 +3279,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3507,6 +3507,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3850,16 +3853,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35111</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>143050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>143049</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3876,8 +3879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="9525"/>
-          <a:ext cx="7896400" cy="3543300"/>
+          <a:off x="8321861" y="9524"/>
+          <a:ext cx="8575663" cy="3848101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5645,8 +5648,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6289,8 +6292,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="E1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6898,8 +6901,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G8" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7666,10 +7669,10 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8247,7 +8250,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8555,8 +8558,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:O16"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11061,7 +11064,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -15604,8 +15607,8 @@
   </sheetPr>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16398,8 +16401,8 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18602,8 +18605,8 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19428,7 +19431,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -20097,8 +20100,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23141,8 +23144,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23404,14 +23407,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="14" t="s">
         <v>558</v>
       </c>
+      <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -23622,7 +23626,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="17" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="927" firstSheet="34" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="902">
   <si>
     <t>cloumn</t>
   </si>
@@ -2380,9 +2380,6 @@
     <t>invoice no in transaction table</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>sale 2</t>
   </si>
   <si>
@@ -2407,12 +2404,6 @@
     <t>on account</t>
   </si>
   <si>
-    <t>adj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adj </t>
-  </si>
-  <si>
     <t>when bill wise adjusment done</t>
   </si>
   <si>
@@ -2683,9 +2674,6 @@
     <t>&gt; hold date</t>
   </si>
   <si>
-    <t>(in sale &amp; purchase- new)(in receipt payment, DR/CR Note- On Account, Advance,Against Referance)</t>
-  </si>
-  <si>
     <t>Log Reports</t>
   </si>
   <si>
@@ -2783,6 +2771,30 @@
   </si>
   <si>
     <t xml:space="preserve">by default when budget created rewised budget also created with = Original budgte values </t>
+  </si>
+  <si>
+    <t>(in sale &amp; purchase- Referance)(in receipt payment, DR/CR Note- On Account, Advance,Against Referance)</t>
+  </si>
+  <si>
+    <t>Referance</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>referance_type</t>
+  </si>
+  <si>
+    <t>referance</t>
+  </si>
+  <si>
+    <t>dropdown(Referance, On account, Advance)</t>
+  </si>
+  <si>
+    <t>On account</t>
+  </si>
+  <si>
+    <t>Adavance</t>
   </si>
 </sst>
 </file>
@@ -3505,11 +3517,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4306,7 +4318,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,12 +4807,12 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="122" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="122" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5234,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="121" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5444,27 +5456,27 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -5817,7 +5829,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>143</v>
@@ -5826,7 +5838,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6416,7 +6428,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>3</v>
@@ -6690,7 +6702,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7596,7 +7608,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>196</v>
@@ -7611,7 +7623,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>219</v>
@@ -7637,17 +7649,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8069,7 @@
     </row>
     <row r="32" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B32" t="s">
         <v>190</v>
@@ -8066,13 +8078,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -8133,7 +8145,7 @@
         <v>is_fixed</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8201,7 +8213,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -9096,89 +9108,89 @@
   <sheetData>
     <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B6" t="s">
+        <v>852</v>
+      </c>
+      <c r="C6" t="s">
         <v>854</v>
-      </c>
-      <c r="B6" t="s">
-        <v>855</v>
-      </c>
-      <c r="C6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C7" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B10" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C10" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C11" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B15" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C15" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C16" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -11064,7 +11076,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11167,7 +11179,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11179,7 +11191,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="10" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>3</v>
@@ -11406,7 +11418,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I3" s="79" t="s">
         <v>622</v>
@@ -11414,7 +11426,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>190</v>
@@ -11426,7 +11438,7 @@
         <v>604</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>377</v>
@@ -11489,10 +11501,10 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="B10" t="s">
         <v>882</v>
-      </c>
-      <c r="B10" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -11505,7 +11517,7 @@
         <v>ledger id</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>606</v>
@@ -11520,13 +11532,13 @@
         <v>609</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11910,7 +11922,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I3" s="79" t="s">
         <v>622</v>
@@ -11918,7 +11930,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>190</v>
@@ -11930,7 +11942,7 @@
         <v>604</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>377</v>
@@ -11993,15 +12005,15 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -12014,7 +12026,7 @@
         <v>ledger id</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>606</v>
@@ -12029,13 +12041,13 @@
         <v>609</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -12419,7 +12431,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I3" s="79" t="s">
         <v>622</v>
@@ -13208,79 +13220,79 @@
   <sheetData>
     <row r="1" spans="1:3" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B4" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C4" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C5" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C6" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C7" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -13798,7 +13810,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>190</v>
@@ -13843,7 +13855,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
@@ -13876,10 +13888,10 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="B10" t="s">
         <v>882</v>
-      </c>
-      <c r="B10" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -13896,7 +13908,7 @@
         <v>cashflow_head</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E11" s="51" t="s">
         <v>606</v>
@@ -13911,13 +13923,13 @@
         <v>609</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K11" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -14291,7 +14303,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>190</v>
@@ -14336,7 +14348,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
@@ -14369,15 +14381,15 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -14394,7 +14406,7 @@
         <v>cashflow_head</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E12" s="51" t="s">
         <v>606</v>
@@ -14409,13 +14421,13 @@
         <v>609</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -15667,7 +15679,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -15688,7 +15700,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>190</v>
@@ -15792,7 +15804,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>190</v>
@@ -15801,14 +15813,14 @@
         <v>0</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>190</v>
@@ -15817,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -15884,7 +15896,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="129" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="K16" t="s">
         <v>709</v>
@@ -16312,7 +16324,7 @@
         <v>1000</v>
       </c>
       <c r="D38" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -16372,10 +16384,10 @@
         <v>945</v>
       </c>
       <c r="D44" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E44" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G44" s="85" t="s">
         <v>725</v>
@@ -16399,10 +16411,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16711,38 +16723,40 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>897</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="O13" s="94">
-        <v>2</v>
-      </c>
-      <c r="P13" s="94">
-        <v>100</v>
-      </c>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="O14" s="94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="94">
         <v>100</v>
@@ -16752,315 +16766,376 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="O15" s="94">
+        <v>3</v>
+      </c>
+      <c r="P15" s="94">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="str">
+    <row r="18" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="str">
         <f>A3</f>
         <v>op_bal_ledger_id</v>
       </c>
-      <c r="B17" s="51" t="str">
+      <c r="B18" s="51" t="str">
         <f>A4</f>
         <v>ref_no</v>
       </c>
-      <c r="C17" s="51" t="str">
+      <c r="C18" s="51" t="str">
         <f>A9</f>
         <v>amount</v>
       </c>
-      <c r="D17" s="47" t="str">
+      <c r="D18" s="47" t="str">
         <f>A5</f>
         <v>bill_date</v>
       </c>
-      <c r="E17" s="47" t="str">
+      <c r="E18" s="47" t="str">
         <f>A8</f>
         <v>due_date</v>
       </c>
-      <c r="F17" s="51" t="str">
+      <c r="F18" s="51" t="str">
         <f>A10</f>
         <v>fc_amount</v>
       </c>
-      <c r="G17" s="51" t="str">
+      <c r="G18" s="51" t="str">
         <f>A11</f>
         <v>fc_name</v>
       </c>
-      <c r="H17" s="51" t="str">
+      <c r="H18" s="51" t="str">
         <f>A12</f>
         <v>fc_rate</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I18" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J18" s="47" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
+      <c r="K18" s="47" t="str">
+        <f>A13</f>
+        <v>referance_type</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>111</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-1</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D19" s="55">
         <v>44228</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E19" s="55">
         <v>44201</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>122</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>-50</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D20" s="55">
         <v>44257</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E20" s="55">
         <v>44318</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>-2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>407</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>25</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>211</v>
-      </c>
-      <c r="C20">
-        <v>560</v>
-      </c>
-      <c r="D20" s="55">
-        <v>44409</v>
-      </c>
-      <c r="E20" s="55">
-        <v>44435</v>
-      </c>
-      <c r="J20">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>560</v>
       </c>
       <c r="D21" s="55">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="E21" s="55">
-        <v>44552</v>
+        <v>44435</v>
       </c>
       <c r="J21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="K21" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
+        <v>222</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22" s="55">
+        <v>44410</v>
+      </c>
+      <c r="E22" s="55">
+        <v>44552</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
         <v>223</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>-80</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D23" s="55">
         <v>44228</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E23" s="55">
         <v>44669</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>-8</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>408</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
+      <c r="K23" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>311</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>60</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D24" s="55">
         <v>44257</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E24" s="55">
         <v>44786</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
+      <c r="K24" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>322</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>-80</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D25" s="55">
         <v>44409</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E25" s="55">
         <v>44903</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
+      <c r="K25" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>333</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>500</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D26" s="55">
         <v>44410</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E26" s="55">
         <v>45020</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>5</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>409</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>100</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="K26" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>411</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>-50</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D27" s="55">
         <v>44228</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E27" s="55">
         <v>45137</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>511</v>
-      </c>
-      <c r="C27">
-        <v>-25</v>
-      </c>
-      <c r="D27" s="55">
-        <v>44257</v>
-      </c>
-      <c r="E27" s="55">
-        <v>45254</v>
-      </c>
-      <c r="I27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28">
+        <v>511</v>
+      </c>
+      <c r="C28">
+        <v>-25</v>
+      </c>
+      <c r="D28" s="55">
+        <v>44257</v>
+      </c>
+      <c r="E28" s="55">
+        <v>45254</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
         <v>522</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D29" s="55">
         <v>44409</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E29" s="55">
         <v>45371</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="K29" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>611</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>-250</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D30" s="55">
         <v>44410</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E30" s="55">
         <v>45488</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -18676,7 +18751,7 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>390</v>
@@ -18725,7 +18800,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -18753,7 +18828,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -18767,7 +18842,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -18818,14 +18893,14 @@
         <v>95</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -19511,7 +19586,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>95</v>
@@ -19536,7 +19611,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -19552,12 +19627,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5"/>
@@ -19764,11 +19839,11 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -19784,7 +19859,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -19808,7 +19883,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -20217,7 +20292,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -20461,10 +20536,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20477,7 +20552,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -20605,7 +20680,7 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>754</v>
@@ -21127,30 +21202,30 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B53" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C53" s="117">
         <v>44198</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>766</v>
+      </c>
+      <c r="B54" t="s">
         <v>767</v>
-      </c>
-      <c r="B54" t="s">
-        <v>768</v>
       </c>
       <c r="C54" s="117">
         <v>44199</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -21562,8 +21637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21627,7 +21702,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>864</v>
+        <v>894</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -21673,12 +21748,12 @@
         <v>95</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -21857,7 +21932,7 @@
         <v>44197</v>
       </c>
       <c r="D19" t="s">
-        <v>763</v>
+        <v>895</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -21874,13 +21949,13 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C20" s="55">
         <v>44197</v>
       </c>
       <c r="D20" t="s">
-        <v>763</v>
+        <v>895</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -21904,7 +21979,7 @@
         <v>44198</v>
       </c>
       <c r="D21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F21">
         <v>300</v>
@@ -21928,7 +22003,7 @@
         <v>44198</v>
       </c>
       <c r="D22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F22">
         <v>300</v>
@@ -21952,7 +22027,7 @@
         <v>44199</v>
       </c>
       <c r="D23" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F23">
         <v>200</v>
@@ -21972,7 +22047,7 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>772</v>
+        <v>896</v>
       </c>
       <c r="E24" s="13">
         <v>200</v>
@@ -21986,8 +22061,8 @@
       <c r="J24" s="13">
         <v>6</v>
       </c>
-      <c r="L24" s="131" t="s">
-        <v>774</v>
+      <c r="L24" s="132" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -21998,7 +22073,7 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>773</v>
+        <v>896</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13">
@@ -22012,7 +22087,7 @@
       <c r="J25" s="13">
         <v>7</v>
       </c>
-      <c r="L25" s="131"/>
+      <c r="L25" s="132"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
@@ -22022,7 +22097,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>772</v>
+        <v>896</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13">
@@ -22036,7 +22111,7 @@
       <c r="J26" s="13">
         <v>8</v>
       </c>
-      <c r="L26" s="131"/>
+      <c r="L26" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22609,7 +22684,7 @@
         <v>735</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -23258,7 +23333,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C8"/>
     </row>
@@ -23268,7 +23343,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C9"/>
     </row>
@@ -23278,7 +23353,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C10"/>
     </row>
@@ -23288,7 +23363,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C11"/>
     </row>
@@ -23298,7 +23373,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C12"/>
     </row>
@@ -23308,7 +23383,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C13"/>
     </row>
@@ -23318,7 +23393,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C14"/>
     </row>
@@ -23328,7 +23403,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C15"/>
     </row>
@@ -23338,7 +23413,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C16"/>
     </row>
@@ -23348,7 +23423,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C17"/>
     </row>
@@ -23415,7 +23490,7 @@
       <c r="B24" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="C24" s="132"/>
+      <c r="C24" s="131"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -23459,7 +23534,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -23486,7 +23561,7 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -23495,7 +23570,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -23504,7 +23579,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -23513,7 +23588,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -23522,7 +23597,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -23531,7 +23606,7 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -23540,7 +23615,7 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -23549,7 +23624,7 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -23558,7 +23633,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -23567,7 +23642,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -23576,7 +23651,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -23585,7 +23660,7 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -23594,7 +23669,7 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -23603,7 +23678,7 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -23611,7 +23686,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -24810,7 +24885,7 @@
       </c>
       <c r="K17" s="4">
         <f ca="1">TODAY()</f>
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="L17" t="s">
         <v>123</v>
@@ -24850,7 +24925,7 @@
       </c>
       <c r="K18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="L18" t="s">
         <v>124</v>
@@ -24890,7 +24965,7 @@
       </c>
       <c r="K19" s="4">
         <f ca="1">TODAY()</f>
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="L19" t="s">
         <v>123</v>
@@ -24930,7 +25005,7 @@
       </c>
       <c r="K20" s="4">
         <f ca="1">TODAY()</f>
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="L20" t="s">
         <v>124</v>
@@ -24970,7 +25045,7 @@
       </c>
       <c r="K21" s="87">
         <f ca="1">TODAY()</f>
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>123</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" tabRatio="927" firstSheet="13" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" tabRatio="927" firstSheet="16" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="16" r:id="rId1"/>
@@ -42,27 +42,28 @@
     <sheet name="budget_details_1" sheetId="44" r:id="rId28"/>
     <sheet name="budget_cashflow" sheetId="22" state="hidden" r:id="rId29"/>
     <sheet name="budget_extention" sheetId="45" r:id="rId30"/>
-    <sheet name="budget_cashflow_details" sheetId="51" r:id="rId31"/>
-    <sheet name="rewised_budget_cashflow" sheetId="54" r:id="rId32"/>
-    <sheet name="budget_cashflow_details_1" sheetId="23" r:id="rId33"/>
-    <sheet name="budget_cashflow_extention" sheetId="41" r:id="rId34"/>
-    <sheet name="ledgar_bal" sheetId="24" r:id="rId35"/>
-    <sheet name="ledger_bal_billwise" sheetId="25" r:id="rId36"/>
-    <sheet name="op_bal_billwise_costcenter" sheetId="27" r:id="rId37"/>
-    <sheet name="op_bal__ledg_costcenter" sheetId="28" state="hidden" r:id="rId38"/>
-    <sheet name="op_bal_BRS" sheetId="30" r:id="rId39"/>
-    <sheet name="lc" sheetId="31" r:id="rId40"/>
-    <sheet name="lc_docs" sheetId="42" r:id="rId41"/>
-    <sheet name="lc_amend" sheetId="32" r:id="rId42"/>
-    <sheet name="transactions" sheetId="34" r:id="rId43"/>
-    <sheet name="transactions_details" sheetId="35" r:id="rId44"/>
-    <sheet name="transactions_details_billwise" sheetId="36" r:id="rId45"/>
-    <sheet name="transactions_details_bill_costc" sheetId="37" state="hidden" r:id="rId46"/>
-    <sheet name="trans_details__ledg_costcente" sheetId="38" r:id="rId47"/>
-    <sheet name="transactions_docs" sheetId="40" r:id="rId48"/>
+    <sheet name="cashflow heads" sheetId="55" r:id="rId31"/>
+    <sheet name="budget_cashflow_details" sheetId="51" r:id="rId32"/>
+    <sheet name="rewised_budget_cashflow" sheetId="54" r:id="rId33"/>
+    <sheet name="budget_cashflow_details_1" sheetId="23" r:id="rId34"/>
+    <sheet name="budget_cashflow_extention" sheetId="41" r:id="rId35"/>
+    <sheet name="ledgar_bal" sheetId="24" r:id="rId36"/>
+    <sheet name="ledger_bal_billwise" sheetId="25" r:id="rId37"/>
+    <sheet name="op_bal_billwise_costcenter" sheetId="27" r:id="rId38"/>
+    <sheet name="op_bal__ledg_costcenter" sheetId="28" state="hidden" r:id="rId39"/>
+    <sheet name="op_bal_BRS" sheetId="30" r:id="rId40"/>
+    <sheet name="lc" sheetId="31" r:id="rId41"/>
+    <sheet name="lc_docs" sheetId="42" r:id="rId42"/>
+    <sheet name="lc_amend" sheetId="32" r:id="rId43"/>
+    <sheet name="transactions" sheetId="34" r:id="rId44"/>
+    <sheet name="transactions_details" sheetId="35" r:id="rId45"/>
+    <sheet name="transactions_details_billwise" sheetId="36" r:id="rId46"/>
+    <sheet name="transactions_details_bill_costc" sheetId="37" state="hidden" r:id="rId47"/>
+    <sheet name="trans_details__ledg_costcente" sheetId="38" r:id="rId48"/>
+    <sheet name="transactions_docs" sheetId="40" r:id="rId49"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="42">transactions!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="43">transactions!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -73,8 +74,117 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+inhouse salary +Outsource salary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Local Vendors </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+International Vendors +
+FOCUS PRIME : 400
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ONLY A PROVISION</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="1020">
   <si>
     <t>cloumn</t>
   </si>
@@ -2848,9 +2958,6 @@
     <t>closing balance</t>
   </si>
   <si>
-    <t>ledger id---1</t>
-  </si>
-  <si>
     <t>year 1,2,3,4... for that a/c</t>
   </si>
   <si>
@@ -2962,9 +3069,6 @@
     <t>update Balance</t>
   </si>
   <si>
-    <t>for that year</t>
-  </si>
-  <si>
     <t>for that year &amp; all next years of company</t>
   </si>
   <si>
@@ -3004,9 +3108,6 @@
     <t>(&gt;= start date of year number 1 of company) &amp; (&lt;= end date of last year of company ) BUT can't be between Start &amp; end date of the years where Locked =True</t>
   </si>
   <si>
-    <t>only after authoristion_status is = authorised</t>
-  </si>
-  <si>
     <t>op Bal(ie Balance for  year0 of that Company)+ (sum amount of all transactions from year 1 to This year) of that company (where authoristion_status==Pending/Approved;dummy_entry==False)</t>
   </si>
   <si>
@@ -3041,13 +3142,133 @@
   </si>
   <si>
     <t>dfds</t>
+  </si>
+  <si>
+    <t>IF BS - Yes</t>
+  </si>
+  <si>
+    <t>for that Year(year ofTransaction Date)</t>
+  </si>
+  <si>
+    <t>sum(all transactions Debit) in that year - sum(all transactions Credit) in that year</t>
+  </si>
+  <si>
+    <t>IF BS - No &amp; transaction type NOT=PL</t>
+  </si>
+  <si>
+    <t>IF BS - No &amp; transaction type ==PL</t>
+  </si>
+  <si>
+    <t>transaction type NOT=PL</t>
+  </si>
+  <si>
+    <t>No Trigger</t>
+  </si>
+  <si>
+    <t>ledger id---1 BS</t>
+  </si>
+  <si>
+    <t>ledger id---2 PL</t>
+  </si>
+  <si>
+    <t>there is no record for this</t>
+  </si>
+  <si>
+    <t>sum(all transactions Debit) in that year - sum(all transactions Credit) in that year) where transaction type NOT=PL</t>
+  </si>
+  <si>
+    <t>Salaries &amp; Benefits</t>
+  </si>
+  <si>
+    <t>Rent+Utilites</t>
+  </si>
+  <si>
+    <t>Barwa Bank to QNB</t>
+  </si>
+  <si>
+    <t>LC Payable : QIB</t>
+  </si>
+  <si>
+    <t>LC Payable : SCB</t>
+  </si>
+  <si>
+    <t>Royalty Expense</t>
+  </si>
+  <si>
+    <t>Outsource Charges - C I T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC Issued : Barwa Bank </t>
+  </si>
+  <si>
+    <t>PDC Issued : QIB Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDC Issued : SCB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directors Dividend </t>
+  </si>
+  <si>
+    <t>Technical Fees</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Custom &amp; Legalisation Charge</t>
+  </si>
+  <si>
+    <t>QNB Credit Card</t>
+  </si>
+  <si>
+    <t>Commissions / REFUNDS</t>
+  </si>
+  <si>
+    <t>Payments to Creditors</t>
+  </si>
+  <si>
+    <t>Repairs &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Travel expenses</t>
+  </si>
+  <si>
+    <t>Audit &amp; Legal Fees</t>
+  </si>
+  <si>
+    <t>Office Supplies &amp; Stationnary/ Cash Purchase</t>
+  </si>
+  <si>
+    <t>Purchase of Fixed Assets</t>
+  </si>
+  <si>
+    <t>Petty Cash / Cash Purchases</t>
+  </si>
+  <si>
+    <t>payments</t>
+  </si>
+  <si>
+    <t>Cash in : Cheque in hand</t>
+  </si>
+  <si>
+    <t>Cash in : LC Receivables</t>
+  </si>
+  <si>
+    <t>Cash in : Month Target</t>
+  </si>
+  <si>
+    <t>receipts</t>
+  </si>
+  <si>
+    <t>cashflow heads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3170,8 +3391,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3226,8 +3460,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3481,6 +3721,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3492,7 +3769,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3753,21 +4030,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="6" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="6" applyBorder="1"/>
@@ -3783,6 +4053,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -5508,7 +5806,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5799,7 +6097,7 @@
         <f>D21+1</f>
         <v>44652</v>
       </c>
-      <c r="D22" s="147">
+      <c r="D22" s="146">
         <f>C22+365</f>
         <v>45017</v>
       </c>
@@ -5824,7 +6122,7 @@
         <f>D22+1</f>
         <v>45018</v>
       </c>
-      <c r="D23" s="147">
+      <c r="D23" s="146">
         <f>C23+365</f>
         <v>45383</v>
       </c>
@@ -6044,8 +6342,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8065,7 +8363,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
@@ -8634,29 +8932,29 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="124" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="72"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
+        <v>927</v>
+      </c>
+      <c r="B51" s="72" t="s">
         <v>928</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="C51" s="72" t="s">
         <v>929</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="72"/>
       <c r="B52" s="72" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -11574,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -11610,7 +11908,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -11624,7 +11922,7 @@
         <v>651</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>3</v>
@@ -11659,47 +11957,47 @@
       <c r="A11" s="70"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="159" t="s">
-        <v>978</v>
+      <c r="A12" s="156" t="s">
+        <v>975</v>
       </c>
       <c r="B12" s="88" t="s">
+        <v>937</v>
+      </c>
+      <c r="C12" s="88" t="s">
         <v>938</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>939</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="88"/>
       <c r="F12" s="88"/>
-      <c r="G12" s="153" t="s">
+      <c r="G12" s="150" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="151" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="155" t="str">
+      <c r="B13" s="152" t="str">
         <f>A4</f>
         <v>compnay id</v>
       </c>
-      <c r="C13" s="155" t="str">
+      <c r="C13" s="152" t="str">
         <f>A5</f>
         <v>year_id</v>
       </c>
-      <c r="D13" s="155" t="str">
+      <c r="D13" s="152" t="str">
         <f>A6</f>
         <v>enforce ristrictions</v>
       </c>
-      <c r="E13" s="155" t="str">
+      <c r="E13" s="152" t="str">
         <f>A7</f>
         <v>authoriser</v>
       </c>
-      <c r="F13" s="155" t="str">
+      <c r="F13" s="152" t="str">
         <f>A8</f>
         <v>type</v>
       </c>
-      <c r="G13" s="156"/>
+      <c r="G13" s="153"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -11714,14 +12012,14 @@
       <c r="D14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="152" t="s">
-        <v>941</v>
-      </c>
-      <c r="F14" s="152" t="s">
+      <c r="E14" s="149" t="s">
+        <v>940</v>
+      </c>
+      <c r="F14" s="149" t="s">
         <v>621</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -11737,14 +12035,14 @@
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="152" t="s">
+      <c r="E15" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="152" t="s">
+      <c r="F15" s="149" t="s">
         <v>622</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -11760,14 +12058,14 @@
       <c r="D16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="152" t="s">
+      <c r="E16" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="152" t="s">
+      <c r="F16" s="149" t="s">
         <v>622</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11783,19 +12081,19 @@
       <c r="D17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="157" t="s">
+      <c r="F17" s="154" t="s">
         <v>621</v>
       </c>
-      <c r="G17" s="158" t="s">
-        <v>940</v>
+      <c r="G17" s="155" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11837,14 +12135,14 @@
       <c r="D21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="152" t="s">
+      <c r="E21" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="152" t="s">
+      <c r="F21" s="149" t="s">
         <v>622</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11854,7 +12152,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -11873,7 +12171,7 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B22"/>
     </sheetView>
   </sheetViews>
@@ -11933,7 +12231,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I3" s="71" t="s">
         <v>612</v>
@@ -11953,7 +12251,7 @@
         <v>595</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>377</v>
@@ -11965,7 +12263,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>879</v>
@@ -11974,7 +12272,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="I5" t="s">
         <v>628</v>
@@ -12012,7 +12310,7 @@
         <v>880</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -12054,7 +12352,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -12336,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -12537,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -12576,7 +12874,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -14316,6 +14614,242 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C8" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -14323,7 +14857,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C25"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14469,7 +15003,7 @@
         <v>858</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
@@ -14808,10 +15342,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="69" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -14819,7 +15353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -15317,7 +15851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15758,7 +16292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -16198,15 +16732,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16342,7 +16876,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -16501,7 +17035,7 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N11" s="113" t="s">
         <v>89</v>
@@ -16532,7 +17066,7 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N12" s="113" t="s">
         <v>887</v>
@@ -16683,7 +17217,7 @@
       </c>
       <c r="C18" s="71">
         <f>SUM(C19:C23)</f>
-        <v>8</v>
+        <v>487</v>
       </c>
       <c r="D18" s="71"/>
       <c r="E18" s="71"/>
@@ -16731,14 +17265,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="A20" s="165">
         <v>3</v>
       </c>
       <c r="B20" s="71">
         <v>1</v>
       </c>
       <c r="C20" s="71">
-        <v>1</v>
+        <f>SUM(ledger_bal_billwise!C23:C25)</f>
+        <v>480</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -16981,158 +17516,158 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="146">
+      <c r="A30" s="145">
         <v>111</v>
       </c>
-      <c r="B30" s="146">
+      <c r="B30" s="145">
         <v>7</v>
       </c>
-      <c r="C30" s="146">
+      <c r="C30" s="145">
         <v>0</v>
       </c>
-      <c r="D30" s="146">
+      <c r="D30" s="145">
         <v>0</v>
       </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146">
+      <c r="E30" s="145"/>
+      <c r="F30" s="145">
         <v>0</v>
       </c>
-      <c r="G30" s="146">
+      <c r="G30" s="145">
         <v>0</v>
       </c>
-      <c r="H30" s="146">
+      <c r="H30" s="145">
         <v>0</v>
       </c>
-      <c r="I30" s="146">
+      <c r="I30" s="145">
         <v>0</v>
       </c>
-      <c r="J30" s="146">
+      <c r="J30" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="146">
+      <c r="A31" s="145">
         <v>222</v>
       </c>
-      <c r="B31" s="146">
+      <c r="B31" s="145">
         <v>9</v>
       </c>
-      <c r="C31" s="146">
+      <c r="C31" s="145">
         <v>0</v>
       </c>
-      <c r="D31" s="146">
+      <c r="D31" s="145">
         <v>0</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146">
+      <c r="E31" s="145"/>
+      <c r="F31" s="145">
         <v>0</v>
       </c>
-      <c r="G31" s="146">
+      <c r="G31" s="145">
         <v>0</v>
       </c>
-      <c r="H31" s="146">
+      <c r="H31" s="145">
         <v>0</v>
       </c>
-      <c r="I31" s="146">
+      <c r="I31" s="145">
         <v>0</v>
       </c>
-      <c r="J31" s="146">
+      <c r="J31" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="148">
+      <c r="A32" s="147">
         <v>222</v>
       </c>
-      <c r="B32" s="146">
+      <c r="B32" s="145">
         <v>10</v>
       </c>
-      <c r="C32" s="146">
+      <c r="C32" s="145">
         <v>0</v>
       </c>
-      <c r="D32" s="146">
+      <c r="D32" s="145">
         <v>0</v>
       </c>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146">
+      <c r="E32" s="145"/>
+      <c r="F32" s="145">
         <v>0</v>
       </c>
-      <c r="G32" s="146">
+      <c r="G32" s="145">
         <v>0</v>
       </c>
-      <c r="H32" s="146">
+      <c r="H32" s="145">
         <v>0</v>
       </c>
-      <c r="I32" s="146">
+      <c r="I32" s="145">
         <v>0</v>
       </c>
-      <c r="J32" s="146">
+      <c r="J32" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="148">
+      <c r="A33" s="147">
         <v>222</v>
       </c>
-      <c r="B33" s="146">
+      <c r="B33" s="145">
         <v>11</v>
       </c>
-      <c r="C33" s="146">
+      <c r="C33" s="145">
         <v>0</v>
       </c>
-      <c r="D33" s="146">
+      <c r="D33" s="145">
         <v>0</v>
       </c>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146">
+      <c r="E33" s="145"/>
+      <c r="F33" s="145">
         <v>0</v>
       </c>
-      <c r="G33" s="146">
+      <c r="G33" s="145">
         <v>0</v>
       </c>
-      <c r="H33" s="146">
+      <c r="H33" s="145">
         <v>0</v>
       </c>
-      <c r="I33" s="146">
+      <c r="I33" s="145">
         <v>0</v>
       </c>
-      <c r="J33" s="146">
+      <c r="J33" s="145">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144" t="s">
+      <c r="A34" s="157" t="s">
         <v>630</v>
       </c>
       <c r="B34" s="88"/>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="167" t="s">
+        <v>959</v>
+      </c>
+      <c r="D34" s="167"/>
+      <c r="E34" s="64" t="s">
+        <v>960</v>
+      </c>
+      <c r="F34" s="133" t="s">
         <v>961</v>
-      </c>
-      <c r="D34" s="150"/>
-      <c r="E34" s="64" t="s">
-        <v>962</v>
-      </c>
-      <c r="F34" s="133" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="137" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>964</v>
-      </c>
-      <c r="C35" s="149" t="s">
-        <v>965</v>
-      </c>
-      <c r="D35" s="149"/>
+        <v>962</v>
+      </c>
+      <c r="C35" s="166" t="s">
+        <v>963</v>
+      </c>
+      <c r="D35" s="166"/>
       <c r="E35" s="139" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F35" s="140"/>
       <c r="G35" s="71" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17141,11 +17676,11 @@
       <c r="F36" s="143"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="145" t="s">
-        <v>948</v>
+      <c r="A37" s="144" t="s">
+        <v>947</v>
       </c>
       <c r="B37" s="88" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C37" s="88"/>
       <c r="D37" s="88"/>
@@ -17161,167 +17696,302 @@
       <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="144" t="s">
+        <v>951</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="148" t="s">
+        <v>959</v>
+      </c>
+      <c r="E39" s="148" t="s">
+        <v>960</v>
+      </c>
+      <c r="F39" s="133" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="159" t="s">
+        <v>985</v>
+      </c>
+      <c r="B40" s="138" t="s">
         <v>952</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>970</v>
-      </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="64" t="s">
-        <v>961</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>962</v>
-      </c>
-      <c r="F39" s="133" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="138" t="s">
+      <c r="C40" s="139" t="s">
+        <v>981</v>
+      </c>
+      <c r="D40" s="139" t="s">
+        <v>956</v>
+      </c>
+      <c r="E40" s="139" t="s">
+        <v>956</v>
+      </c>
+      <c r="F40" s="140" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="159" t="s">
+        <v>985</v>
+      </c>
+      <c r="B41" s="138" t="s">
         <v>953</v>
       </c>
-      <c r="C40" s="138" t="s">
-        <v>956</v>
-      </c>
-      <c r="D40" s="139" t="s">
-        <v>958</v>
-      </c>
-      <c r="E40" s="139" t="s">
-        <v>958</v>
-      </c>
-      <c r="F40" s="140" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="138" t="s">
+      <c r="C41" s="139" t="s">
+        <v>981</v>
+      </c>
+      <c r="D41" s="139" t="s">
+        <v>957</v>
+      </c>
+      <c r="E41" s="139" t="s">
+        <v>957</v>
+      </c>
+      <c r="F41" s="140" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="151" t="s">
+        <v>983</v>
+      </c>
+      <c r="B42" s="138" t="s">
         <v>954</v>
       </c>
-      <c r="C41" s="138" t="s">
-        <v>956</v>
-      </c>
-      <c r="D41" s="139" t="s">
-        <v>959</v>
-      </c>
-      <c r="E41" s="139" t="s">
-        <v>959</v>
-      </c>
-      <c r="F41" s="140" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="141" t="s">
+      <c r="C42" s="139" t="s">
+        <v>981</v>
+      </c>
+      <c r="D42" s="139" t="s">
+        <v>982</v>
+      </c>
+      <c r="E42" s="139" t="s">
+        <v>982</v>
+      </c>
+      <c r="F42" s="140" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="151" t="s">
+        <v>984</v>
+      </c>
+      <c r="B43" s="138" t="s">
+        <v>954</v>
+      </c>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="E43" s="139" t="s">
+        <v>986</v>
+      </c>
+      <c r="F43" s="140" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="158" t="s">
+        <v>980</v>
+      </c>
+      <c r="B44" s="141" t="s">
+        <v>954</v>
+      </c>
+      <c r="C44" s="142" t="s">
         <v>955</v>
       </c>
-      <c r="C42" s="142" t="s">
-        <v>957</v>
-      </c>
-      <c r="D42" s="142" t="s">
-        <v>971</v>
-      </c>
-      <c r="E42" s="142" t="s">
-        <v>971</v>
-      </c>
-      <c r="F42" s="143" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="125" t="str">
+      <c r="D44" s="142" t="s">
+        <v>968</v>
+      </c>
+      <c r="E44" s="142" t="s">
+        <v>968</v>
+      </c>
+      <c r="F44" s="143" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="125" t="str">
         <f>C17</f>
         <v>balance</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C47" s="13">
         <v>1000</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="126" t="str">
+      <c r="E47" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="126" t="str">
         <f>I17</f>
         <v>Total_Dr</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C48" s="13">
         <v>1000</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D48" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="126" t="str">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="126" t="str">
         <f>J17</f>
         <v>Total_Cr</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C49" s="13">
         <v>500</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D49" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="126" t="str">
+      <c r="F49" s="13" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="126" t="str">
         <f>C17</f>
         <v>balance</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C50" s="13">
         <v>1500</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D50" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="F50" s="35" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="125" t="str">
+        <f>A47</f>
+        <v>balance</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="125" t="str">
+        <f t="shared" ref="A54:A56" si="0">A48</f>
+        <v>Total_Dr</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>951</v>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="125" t="str">
+        <f t="shared" si="0"/>
+        <v>Total_Cr</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="C55" s="13">
+        <v>500</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v>balance</v>
+      </c>
+      <c r="B56" s="161" t="s">
+        <v>917</v>
+      </c>
+      <c r="C56" s="161">
+        <f>C54-C55</f>
+        <v>500</v>
+      </c>
+      <c r="D56" s="161" t="s">
+        <v>918</v>
+      </c>
+      <c r="E56" s="161" t="s">
+        <v>919</v>
+      </c>
+      <c r="F56" s="162" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -17334,7 +18004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -17342,7 +18012,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17858,13 +18528,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="163">
+        <v>3</v>
+      </c>
+      <c r="B23" s="163">
         <v>311</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="163">
         <v>60</v>
       </c>
       <c r="D23" s="55">
@@ -17878,13 +18548,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="163">
+        <v>3</v>
+      </c>
+      <c r="B24" s="163">
         <v>322</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="163">
         <v>-80</v>
       </c>
       <c r="D24" s="55">
@@ -17898,13 +18568,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="163">
+        <v>3</v>
+      </c>
+      <c r="B25" s="163">
         <v>333</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="164">
         <v>500</v>
       </c>
       <c r="D25" s="55">
@@ -18008,7 +18678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -18768,7 +19438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -19531,636 +20201,6 @@
       <c r="E32" s="67">
         <f>SUM(D31:D32)</f>
         <v>300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>871</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="122" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="str">
-        <f>A3</f>
-        <v>bank_ledgerid</v>
-      </c>
-      <c r="B19" s="51" t="str">
-        <f>A4</f>
-        <v>year id</v>
-      </c>
-      <c r="C19" s="51" t="str">
-        <f>A5</f>
-        <v>acc_code</v>
-      </c>
-      <c r="D19" s="51" t="str">
-        <f>A6</f>
-        <v>name</v>
-      </c>
-      <c r="E19" s="51" t="str">
-        <f>A8</f>
-        <v>cheque no</v>
-      </c>
-      <c r="F19" s="51" t="str">
-        <f>A7</f>
-        <v>chq_date</v>
-      </c>
-      <c r="G19" s="51" t="str">
-        <f>A11</f>
-        <v>amount</v>
-      </c>
-      <c r="H19" s="51" t="str">
-        <f>A12</f>
-        <v>remarks</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f>A13</f>
-        <v>trans_type</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>A10</f>
-        <v>trans no</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f>A9</f>
-        <v>trans_date</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f>A14</f>
-        <v>reco_date</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>431</v>
-      </c>
-      <c r="E20">
-        <v>123</v>
-      </c>
-      <c r="F20" s="55">
-        <v>44228</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E21">
-        <v>465</v>
-      </c>
-      <c r="F21" s="55">
-        <v>44229</v>
-      </c>
-      <c r="G21">
-        <v>60</v>
-      </c>
-      <c r="I21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>433</v>
-      </c>
-      <c r="E22">
-        <v>4621122</v>
-      </c>
-      <c r="F22" s="55">
-        <v>44230</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>434</v>
-      </c>
-      <c r="E23">
-        <v>312561</v>
-      </c>
-      <c r="F23" s="55">
-        <v>44231</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>435</v>
-      </c>
-      <c r="G24">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s">
-        <v>380</v>
-      </c>
-      <c r="J24">
-        <v>12</v>
-      </c>
-      <c r="K24" s="55">
-        <v>44232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>435</v>
-      </c>
-      <c r="G25">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25">
-        <v>55</v>
-      </c>
-      <c r="K25" s="55">
-        <v>44233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>435</v>
-      </c>
-      <c r="G26">
-        <v>58</v>
-      </c>
-      <c r="I26" t="s">
-        <v>380</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26" s="55">
-        <v>44234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>440</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
-        <v>178</v>
-      </c>
-      <c r="J27">
-        <v>522</v>
-      </c>
-      <c r="K27" s="55">
-        <v>44235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>436</v>
-      </c>
-      <c r="E28">
-        <v>55</v>
-      </c>
-      <c r="F28" s="55">
-        <v>44236</v>
-      </c>
-      <c r="G28">
-        <v>52</v>
-      </c>
-      <c r="I28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>437</v>
-      </c>
-      <c r="E29">
-        <v>5445</v>
-      </c>
-      <c r="F29" s="55">
-        <v>44237</v>
-      </c>
-      <c r="G29">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>438</v>
-      </c>
-      <c r="E30">
-        <v>44</v>
-      </c>
-      <c r="F30" s="55">
-        <v>44238</v>
-      </c>
-      <c r="G30">
-        <v>52</v>
-      </c>
-      <c r="I30" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>439</v>
-      </c>
-      <c r="E31">
-        <v>444</v>
-      </c>
-      <c r="F31" s="55">
-        <v>44239</v>
-      </c>
-      <c r="G31">
-        <v>55</v>
-      </c>
-      <c r="I31" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -20376,6 +20416,636 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="122" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="str">
+        <f>A3</f>
+        <v>bank_ledgerid</v>
+      </c>
+      <c r="B19" s="51" t="str">
+        <f>A4</f>
+        <v>year id</v>
+      </c>
+      <c r="C19" s="51" t="str">
+        <f>A5</f>
+        <v>acc_code</v>
+      </c>
+      <c r="D19" s="51" t="str">
+        <f>A6</f>
+        <v>name</v>
+      </c>
+      <c r="E19" s="51" t="str">
+        <f>A8</f>
+        <v>cheque no</v>
+      </c>
+      <c r="F19" s="51" t="str">
+        <f>A7</f>
+        <v>chq_date</v>
+      </c>
+      <c r="G19" s="51" t="str">
+        <f>A11</f>
+        <v>amount</v>
+      </c>
+      <c r="H19" s="51" t="str">
+        <f>A12</f>
+        <v>remarks</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f>A13</f>
+        <v>trans_type</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>A10</f>
+        <v>trans no</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>A9</f>
+        <v>trans_date</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f>A14</f>
+        <v>reco_date</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20">
+        <v>123</v>
+      </c>
+      <c r="F20" s="55">
+        <v>44228</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21">
+        <v>465</v>
+      </c>
+      <c r="F21" s="55">
+        <v>44229</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22">
+        <v>4621122</v>
+      </c>
+      <c r="F22" s="55">
+        <v>44230</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23">
+        <v>312561</v>
+      </c>
+      <c r="F23" s="55">
+        <v>44231</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>435</v>
+      </c>
+      <c r="G24">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>380</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24" s="55">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>435</v>
+      </c>
+      <c r="G25">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25">
+        <v>55</v>
+      </c>
+      <c r="K25" s="55">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>380</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" s="55">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27">
+        <v>522</v>
+      </c>
+      <c r="K27" s="55">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E28">
+        <v>55</v>
+      </c>
+      <c r="F28" s="55">
+        <v>44236</v>
+      </c>
+      <c r="G28">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29">
+        <v>5445</v>
+      </c>
+      <c r="F29" s="55">
+        <v>44237</v>
+      </c>
+      <c r="G29">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E30">
+        <v>44</v>
+      </c>
+      <c r="F30" s="55">
+        <v>44238</v>
+      </c>
+      <c r="G30">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E31">
+        <v>444</v>
+      </c>
+      <c r="F31" s="55">
+        <v>44239</v>
+      </c>
+      <c r="G31">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:I43"/>
@@ -20839,7 +21509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -21042,7 +21712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -21272,7 +21942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -21365,7 +22035,7 @@
         <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
@@ -21400,7 +22070,7 @@
         <v>539</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
@@ -21762,7 +22432,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>7</v>
@@ -22150,7 +22820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -22657,7 +23327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -22742,7 +23412,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>890</v>
@@ -22760,7 +23430,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -23144,7 +23814,7 @@
         <f>L24</f>
         <v>xyz</v>
       </c>
-      <c r="M25" s="151" t="s">
+      <c r="M25" s="168" t="s">
         <v>751</v>
       </c>
     </row>
@@ -23176,7 +23846,7 @@
         <f>L25</f>
         <v>xyz</v>
       </c>
-      <c r="M26" s="151"/>
+      <c r="M26" s="168"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
@@ -23206,7 +23876,7 @@
         <f>L26</f>
         <v>xyz</v>
       </c>
-      <c r="M27" s="151"/>
+      <c r="M27" s="168"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
@@ -23216,7 +23886,7 @@
         <v>824</v>
       </c>
       <c r="F29" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -23279,7 +23949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -23737,7 +24407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -24171,14 +24841,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -24258,7 +24928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -26130,7 +26800,7 @@
       </c>
       <c r="K17" s="4">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="L17" t="s">
         <v>123</v>
@@ -26170,7 +26840,7 @@
       </c>
       <c r="K18" s="4">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="L18" t="s">
         <v>124</v>
@@ -26210,7 +26880,7 @@
       </c>
       <c r="K19" s="4">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="L19" t="s">
         <v>123</v>
@@ -26250,7 +26920,7 @@
       </c>
       <c r="K20" s="4">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="L20" t="s">
         <v>124</v>
@@ -26290,7 +26960,7 @@
       </c>
       <c r="K21" s="79">
         <f ca="1">TODAY()</f>
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="L21" s="77" t="s">
         <v>123</v>
